--- a/statistics_files/2024/2024_99_g_sharing.xlsx
+++ b/statistics_files/2024/2024_99_g_sharing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0726E08-913E-4950-8120-185683F4A38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29040161-8770-4F38-B5C2-49079FC85087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -724,7 +724,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -757,15 +757,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>3940</v>
+        <v>7805</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>1329</v>
+        <v>2737</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>5269</v>
+        <v>10542</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,15 +774,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>2594</v>
+        <v>5167</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>534</v>
+        <v>1082</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>3128</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,15 +791,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>7699</v>
+        <v>15250</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>1209</v>
+        <v>2442</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>8908</v>
+        <v>17692</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,15 +808,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>143</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,15 +825,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>5627</v>
+        <v>10323</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>1109</v>
+        <v>2148</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>6736</v>
+        <v>12471</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,15 +842,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>285</v>
+        <v>710</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>257</v>
+        <v>488</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>542</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,15 +859,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>491</v>
+        <v>1054</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>576</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,15 +876,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>235</v>
+        <v>445</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>292</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -901,7 +901,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>67</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,15 +927,15 @@
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>134</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,15 +944,15 @@
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>187</v>
+        <v>368</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>357</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,15 +961,15 @@
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>525</v>
+        <v>1021</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>677</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,15 +978,15 @@
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>323</v>
+        <v>693</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>389</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,15 +995,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>224</v>
+        <v>475</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>274</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,15 +1012,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>1503</v>
+        <v>2978</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>619</v>
+        <v>1200</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>2122</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,15 +1029,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>126</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,15 +1046,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>1505</v>
+        <v>3067</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>615</v>
+        <v>1118</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>2120</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,15 +1080,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>1613</v>
+        <v>3146</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>423</v>
+        <v>837</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>2036</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,15 +1097,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>115</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,15 +1114,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>1944</v>
+        <v>3740</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>619</v>
+        <v>1263</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>2563</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,15 +1131,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>8587</v>
+        <v>16784</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>1721</v>
+        <v>3610</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>10308</v>
+        <v>20394</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,15 +1148,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>676</v>
+        <v>1286</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>834</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,15 +1182,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>331</v>
+        <v>726</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>255</v>
+        <v>456</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>586</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,15 +1199,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>178</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,15 +1216,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>969</v>
+        <v>2079</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>528</v>
+        <v>1111</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>1497</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,15 +1233,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,15 +1250,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>280</v>
+        <v>558</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>347</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,15 +1267,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>1186</v>
+        <v>2418</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>361</v>
+        <v>858</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>1547</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,15 +1284,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>793</v>
+        <v>1730</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>336</v>
+        <v>609</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>1129</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,15 +1301,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>456</v>
+        <v>948</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>603</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,15 +1318,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>6165</v>
+        <v>12403</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>787</v>
+        <v>1619</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>6952</v>
+        <v>14022</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,15 +1335,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>786</v>
+        <v>1660</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>962</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,15 +1352,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>2959</v>
+        <v>5588</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>450</v>
+        <v>890</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>3409</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,15 +1369,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>86</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,15 +1386,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>109</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,15 +1403,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>373</v>
+        <v>741</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>444</v>
+        <v>833</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,15 +1420,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>1563</v>
+        <v>3559</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>1664</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,15 +1437,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,15 +1454,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>141</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,15 +1488,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>324</v>
+        <v>673</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>395</v>
+        <v>810</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,15 +1505,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>1242</v>
+        <v>2416</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>515</v>
+        <v>1123</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>1757</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,15 +1522,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>2750</v>
+        <v>5550</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>1087</v>
+        <v>2230</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>3837</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,15 +1539,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>1282</v>
+        <v>2886</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>264</v>
+        <v>527</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>1546</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>890</v>
+        <v>1767</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>513</v>
+        <v>1052</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>1403</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,15 +1573,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>3110</v>
+        <v>6469</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>906</v>
+        <v>1803</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>4016</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,15 +1590,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>302</v>
+        <v>660</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>489</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,15 +1607,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1106</v>
+        <v>2220</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>322</v>
+        <v>689</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>1428</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,15 +1624,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>283</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,15 +1641,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>244</v>
+        <v>604</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>259</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,15 +1658,15 @@
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>416</v>
+        <v>826</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>716</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,15 +1675,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>1148</v>
+        <v>2296</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>409</v>
+        <v>880</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>1557</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,15 +1692,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>2125</v>
+        <v>4639</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>2309</v>
+        <v>4955</v>
       </c>
     </row>
   </sheetData>
@@ -6789,7 +6789,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -11585,15 +11585,15 @@
       </c>
       <c r="B2" s="2">
         <f>FebruaryRaw!B2</f>
-        <v>0</v>
+        <v>3865</v>
       </c>
       <c r="C2" s="2">
         <f>FebruaryRaw!C2</f>
-        <v>0</v>
+        <v>1408</v>
       </c>
       <c r="D2" s="2">
         <f>FebruaryRaw!D2</f>
-        <v>0</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11602,15 +11602,15 @@
       </c>
       <c r="B3" s="3">
         <f>FebruaryRaw!B3</f>
-        <v>0</v>
+        <v>2573</v>
       </c>
       <c r="C3" s="3">
         <f>FebruaryRaw!C3</f>
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="D3" s="3">
         <f>FebruaryRaw!D3</f>
-        <v>0</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11619,15 +11619,15 @@
       </c>
       <c r="B4" s="2">
         <f>FebruaryRaw!B4</f>
-        <v>0</v>
+        <v>7551</v>
       </c>
       <c r="C4" s="2">
         <f>FebruaryRaw!C4</f>
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="D4" s="2">
         <f>FebruaryRaw!D4</f>
-        <v>0</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11636,15 +11636,15 @@
       </c>
       <c r="B5" s="3">
         <f>FebruaryRaw!B5</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3">
         <f>FebruaryRaw!C5</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3">
         <f>FebruaryRaw!D5</f>
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11653,15 +11653,15 @@
       </c>
       <c r="B6" s="2">
         <f>FebruaryRaw!B6</f>
-        <v>0</v>
+        <v>4696</v>
       </c>
       <c r="C6" s="2">
         <f>FebruaryRaw!C6</f>
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="D6" s="2">
         <f>FebruaryRaw!D6</f>
-        <v>0</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11670,15 +11670,15 @@
       </c>
       <c r="B7" s="3">
         <f>FebruaryRaw!B7</f>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="C7" s="3">
         <f>FebruaryRaw!C7</f>
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="D7" s="3">
         <f>FebruaryRaw!D7</f>
-        <v>0</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11687,15 +11687,15 @@
       </c>
       <c r="B8" s="2">
         <f>FebruaryRaw!B8</f>
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="C8" s="2">
         <f>FebruaryRaw!C8</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2">
         <f>FebruaryRaw!D8</f>
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11704,15 +11704,15 @@
       </c>
       <c r="B9" s="3">
         <f>FebruaryRaw!B9</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3">
         <f>FebruaryRaw!C9</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3">
         <f>FebruaryRaw!D9</f>
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="B10" s="2">
         <f>FebruaryRaw!B10</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2">
         <f>FebruaryRaw!C10</f>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="D10" s="2">
         <f>FebruaryRaw!D10</f>
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11755,15 +11755,15 @@
       </c>
       <c r="B12" s="4">
         <f>FebruaryRaw!B12</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C12" s="4">
         <f>FebruaryRaw!C12</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D12" s="4">
         <f>FebruaryRaw!D12</f>
-        <v>0</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11772,15 +11772,15 @@
       </c>
       <c r="B13" s="5">
         <f>FebruaryRaw!B13</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="C13" s="5">
         <f>FebruaryRaw!C13</f>
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D13" s="5">
         <f>FebruaryRaw!D13</f>
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11789,15 +11789,15 @@
       </c>
       <c r="B14" s="4">
         <f>FebruaryRaw!B14</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="C14" s="4">
         <f>FebruaryRaw!C14</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D14" s="4">
         <f>FebruaryRaw!D14</f>
-        <v>0</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11806,15 +11806,15 @@
       </c>
       <c r="B15" s="5">
         <f>FebruaryRaw!B15</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="C15" s="5">
         <f>FebruaryRaw!C15</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5">
         <f>FebruaryRaw!D15</f>
-        <v>0</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11823,15 +11823,15 @@
       </c>
       <c r="B16" s="2">
         <f>FebruaryRaw!B16</f>
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="C16" s="2">
         <f>FebruaryRaw!C16</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2">
         <f>FebruaryRaw!D16</f>
-        <v>0</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11840,15 +11840,15 @@
       </c>
       <c r="B17" s="3">
         <f>FebruaryRaw!B17</f>
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="C17" s="3">
         <f>FebruaryRaw!C17</f>
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="D17" s="3">
         <f>FebruaryRaw!D17</f>
-        <v>0</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11857,15 +11857,15 @@
       </c>
       <c r="B18" s="2">
         <f>FebruaryRaw!B18</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2">
         <f>FebruaryRaw!C18</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2">
         <f>FebruaryRaw!D18</f>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11874,15 +11874,15 @@
       </c>
       <c r="B19" s="3">
         <f>FebruaryRaw!B19</f>
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="C19" s="3">
         <f>FebruaryRaw!C19</f>
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="D19" s="3">
         <f>FebruaryRaw!D19</f>
-        <v>0</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11891,15 +11891,15 @@
       </c>
       <c r="B20" s="2">
         <f>FebruaryRaw!B20</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2">
         <f>FebruaryRaw!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <f>FebruaryRaw!D20</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11908,15 +11908,15 @@
       </c>
       <c r="B21" s="3">
         <f>FebruaryRaw!B21</f>
-        <v>0</v>
+        <v>1533</v>
       </c>
       <c r="C21" s="3">
         <f>FebruaryRaw!C21</f>
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="D21" s="3">
         <f>FebruaryRaw!D21</f>
-        <v>0</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11925,15 +11925,15 @@
       </c>
       <c r="B22" s="2">
         <f>FebruaryRaw!B22</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2">
         <f>FebruaryRaw!C22</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2">
         <f>FebruaryRaw!D22</f>
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11942,15 +11942,15 @@
       </c>
       <c r="B23" s="3">
         <f>FebruaryRaw!B23</f>
-        <v>0</v>
+        <v>1796</v>
       </c>
       <c r="C23" s="3">
         <f>FebruaryRaw!C23</f>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="D23" s="3">
         <f>FebruaryRaw!D23</f>
-        <v>0</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11959,15 +11959,15 @@
       </c>
       <c r="B24" s="2">
         <f>FebruaryRaw!B24</f>
-        <v>0</v>
+        <v>8197</v>
       </c>
       <c r="C24" s="2">
         <f>FebruaryRaw!C24</f>
-        <v>0</v>
+        <v>1889</v>
       </c>
       <c r="D24" s="2">
         <f>FebruaryRaw!D24</f>
-        <v>0</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11976,15 +11976,15 @@
       </c>
       <c r="B25" s="3">
         <f>FebruaryRaw!B25</f>
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="C25" s="3">
         <f>FebruaryRaw!C25</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D25" s="3">
         <f>FebruaryRaw!D25</f>
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12010,15 +12010,15 @@
       </c>
       <c r="B27" s="3">
         <f>FebruaryRaw!B27</f>
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="C27" s="3">
         <f>FebruaryRaw!C27</f>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D27" s="3">
         <f>FebruaryRaw!D27</f>
-        <v>0</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12027,15 +12027,15 @@
       </c>
       <c r="B28" s="2">
         <f>FebruaryRaw!B28</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C28" s="2">
         <f>FebruaryRaw!C28</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2">
         <f>FebruaryRaw!D28</f>
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12044,15 +12044,15 @@
       </c>
       <c r="B29" s="3">
         <f>FebruaryRaw!B29</f>
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="C29" s="3">
         <f>FebruaryRaw!C29</f>
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="D29" s="3">
         <f>FebruaryRaw!D29</f>
-        <v>0</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12061,15 +12061,15 @@
       </c>
       <c r="B30" s="2">
         <f>FebruaryRaw!B30</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <f>FebruaryRaw!C30</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <f>FebruaryRaw!D30</f>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12078,15 +12078,15 @@
       </c>
       <c r="B31" s="3">
         <f>FebruaryRaw!B31</f>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="C31" s="3">
         <f>FebruaryRaw!C31</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3">
         <f>FebruaryRaw!D31</f>
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12095,15 +12095,15 @@
       </c>
       <c r="B32" s="2">
         <f>FebruaryRaw!B32</f>
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="C32" s="2">
         <f>FebruaryRaw!C32</f>
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="D32" s="2">
         <f>FebruaryRaw!D32</f>
-        <v>0</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12112,15 +12112,15 @@
       </c>
       <c r="B33" s="3">
         <f>FebruaryRaw!B33</f>
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="C33" s="3">
         <f>FebruaryRaw!C33</f>
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="D33" s="3">
         <f>FebruaryRaw!D33</f>
-        <v>0</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12129,15 +12129,15 @@
       </c>
       <c r="B34" s="2">
         <f>FebruaryRaw!B34</f>
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="C34" s="2">
         <f>FebruaryRaw!C34</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D34" s="2">
         <f>FebruaryRaw!D34</f>
-        <v>0</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12146,15 +12146,15 @@
       </c>
       <c r="B35" s="3">
         <f>FebruaryRaw!B35</f>
-        <v>0</v>
+        <v>6238</v>
       </c>
       <c r="C35" s="3">
         <f>FebruaryRaw!C35</f>
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="D35" s="3">
         <f>FebruaryRaw!D35</f>
-        <v>0</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12163,15 +12163,15 @@
       </c>
       <c r="B36" s="2">
         <f>FebruaryRaw!B36</f>
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="C36" s="2">
         <f>FebruaryRaw!C36</f>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D36" s="2">
         <f>FebruaryRaw!D36</f>
-        <v>0</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12180,15 +12180,15 @@
       </c>
       <c r="B37" s="3">
         <f>FebruaryRaw!B37</f>
-        <v>0</v>
+        <v>2629</v>
       </c>
       <c r="C37" s="3">
         <f>FebruaryRaw!C37</f>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="D37" s="3">
         <f>FebruaryRaw!D37</f>
-        <v>0</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12197,15 +12197,15 @@
       </c>
       <c r="B38" s="2">
         <f>FebruaryRaw!B38</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2">
         <f>FebruaryRaw!C38</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2">
         <f>FebruaryRaw!D38</f>
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12214,15 +12214,15 @@
       </c>
       <c r="B39" s="3">
         <f>FebruaryRaw!B39</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C39" s="3">
         <f>FebruaryRaw!C39</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3">
         <f>FebruaryRaw!D39</f>
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12231,15 +12231,15 @@
       </c>
       <c r="B40" s="6">
         <f>FebruaryRaw!B40</f>
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="C40" s="6">
         <f>FebruaryRaw!C40</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D40" s="6">
         <f>FebruaryRaw!D40</f>
-        <v>0</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12248,15 +12248,15 @@
       </c>
       <c r="B41" s="7">
         <f>FebruaryRaw!B41</f>
-        <v>0</v>
+        <v>1996</v>
       </c>
       <c r="C41" s="7">
         <f>FebruaryRaw!C41</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D41" s="7">
         <f>FebruaryRaw!D41</f>
-        <v>0</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12265,15 +12265,15 @@
       </c>
       <c r="B42" s="6">
         <f>FebruaryRaw!B42</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C42" s="6">
         <f>FebruaryRaw!C42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
         <f>FebruaryRaw!D42</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12282,15 +12282,15 @@
       </c>
       <c r="B43" s="7">
         <f>FebruaryRaw!B43</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C43" s="7">
         <f>FebruaryRaw!C43</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7">
         <f>FebruaryRaw!D43</f>
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12316,15 +12316,15 @@
       </c>
       <c r="B45" s="3">
         <f>FebruaryRaw!B45</f>
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="C45" s="3">
         <f>FebruaryRaw!C45</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D45" s="3">
         <f>FebruaryRaw!D45</f>
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12333,15 +12333,15 @@
       </c>
       <c r="B46" s="2">
         <f>FebruaryRaw!B46</f>
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="C46" s="2">
         <f>FebruaryRaw!C46</f>
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="D46" s="2">
         <f>FebruaryRaw!D46</f>
-        <v>0</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12350,15 +12350,15 @@
       </c>
       <c r="B47" s="3">
         <f>FebruaryRaw!B47</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="C47" s="3">
         <f>FebruaryRaw!C47</f>
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="D47" s="3">
         <f>FebruaryRaw!D47</f>
-        <v>0</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12367,15 +12367,15 @@
       </c>
       <c r="B48" s="2">
         <f>FebruaryRaw!B48</f>
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="C48" s="2">
         <f>FebruaryRaw!C48</f>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D48" s="2">
         <f>FebruaryRaw!D48</f>
-        <v>0</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12384,15 +12384,15 @@
       </c>
       <c r="B49" s="3">
         <f>FebruaryRaw!B49</f>
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="C49" s="3">
         <f>FebruaryRaw!C49</f>
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="D49" s="3">
         <f>FebruaryRaw!D49</f>
-        <v>0</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12401,15 +12401,15 @@
       </c>
       <c r="B50" s="2">
         <f>FebruaryRaw!B50</f>
-        <v>0</v>
+        <v>3359</v>
       </c>
       <c r="C50" s="2">
         <f>FebruaryRaw!C50</f>
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="D50" s="2">
         <f>FebruaryRaw!D50</f>
-        <v>0</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12418,15 +12418,15 @@
       </c>
       <c r="B51" s="3">
         <f>FebruaryRaw!B51</f>
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="C51" s="3">
         <f>FebruaryRaw!C51</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D51" s="3">
         <f>FebruaryRaw!D51</f>
-        <v>0</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12435,15 +12435,15 @@
       </c>
       <c r="B52" s="2">
         <f>FebruaryRaw!B52</f>
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="C52" s="2">
         <f>FebruaryRaw!C52</f>
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="D52" s="2">
         <f>FebruaryRaw!D52</f>
-        <v>0</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12452,15 +12452,15 @@
       </c>
       <c r="B53" s="3">
         <f>FebruaryRaw!B53</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3">
         <f>FebruaryRaw!C53</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D53" s="3">
         <f>FebruaryRaw!D53</f>
-        <v>0</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12469,15 +12469,15 @@
       </c>
       <c r="B54" s="2">
         <f>FebruaryRaw!B54</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2">
         <f>FebruaryRaw!C54</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2">
         <f>FebruaryRaw!D54</f>
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12486,15 +12486,15 @@
       </c>
       <c r="B55" s="3">
         <f>FebruaryRaw!B55</f>
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="C55" s="3">
         <f>FebruaryRaw!C55</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D55" s="3">
         <f>FebruaryRaw!D55</f>
-        <v>0</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12503,15 +12503,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12520,15 +12520,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>2514</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2646</v>
       </c>
     </row>
   </sheetData>
@@ -12540,12 +12540,753 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B87C0-B32D-46B0-9D42-452633530A1D}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3865</v>
+      </c>
+      <c r="C2">
+        <v>1408</v>
+      </c>
+      <c r="D2">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2573</v>
+      </c>
+      <c r="C3">
+        <v>548</v>
+      </c>
+      <c r="D3">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7551</v>
+      </c>
+      <c r="C4">
+        <v>1233</v>
+      </c>
+      <c r="D4">
+        <v>8784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4696</v>
+      </c>
+      <c r="C6">
+        <v>1039</v>
+      </c>
+      <c r="D6">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>425</v>
+      </c>
+      <c r="C7">
+        <v>231</v>
+      </c>
+      <c r="D7">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>563</v>
+      </c>
+      <c r="C8">
+        <v>137</v>
+      </c>
+      <c r="D8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>210</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>99</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>181</v>
+      </c>
+      <c r="C13">
+        <v>205</v>
+      </c>
+      <c r="D13">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>496</v>
+      </c>
+      <c r="C14">
+        <v>131</v>
+      </c>
+      <c r="D14">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>370</v>
+      </c>
+      <c r="C15">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>251</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1475</v>
+      </c>
+      <c r="C17">
+        <v>581</v>
+      </c>
+      <c r="D17">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1562</v>
+      </c>
+      <c r="C19">
+        <v>503</v>
+      </c>
+      <c r="D19">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1533</v>
+      </c>
+      <c r="C21">
+        <v>414</v>
+      </c>
+      <c r="D21">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>103</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1796</v>
+      </c>
+      <c r="C23">
+        <v>644</v>
+      </c>
+      <c r="D23">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8197</v>
+      </c>
+      <c r="C24">
+        <v>1889</v>
+      </c>
+      <c r="D24">
+        <v>10086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>610</v>
+      </c>
+      <c r="C25">
+        <v>136</v>
+      </c>
+      <c r="D25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>395</v>
+      </c>
+      <c r="C27">
+        <v>201</v>
+      </c>
+      <c r="D27">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>138</v>
+      </c>
+      <c r="C28">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1110</v>
+      </c>
+      <c r="C29">
+        <v>583</v>
+      </c>
+      <c r="D29">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>278</v>
+      </c>
+      <c r="C31">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1232</v>
+      </c>
+      <c r="C32">
+        <v>497</v>
+      </c>
+      <c r="D32">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>937</v>
+      </c>
+      <c r="C33">
+        <v>273</v>
+      </c>
+      <c r="D33">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>492</v>
+      </c>
+      <c r="C34">
+        <v>140</v>
+      </c>
+      <c r="D34">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6238</v>
+      </c>
+      <c r="C35">
+        <v>832</v>
+      </c>
+      <c r="D35">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>874</v>
+      </c>
+      <c r="C36">
+        <v>235</v>
+      </c>
+      <c r="D36">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2629</v>
+      </c>
+      <c r="C37">
+        <v>440</v>
+      </c>
+      <c r="D37">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>113</v>
+      </c>
+      <c r="C39">
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>368</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1996</v>
+      </c>
+      <c r="C41">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>125</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>349</v>
+      </c>
+      <c r="C45">
+        <v>66</v>
+      </c>
+      <c r="D45">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1174</v>
+      </c>
+      <c r="C46">
+        <v>608</v>
+      </c>
+      <c r="D46">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2800</v>
+      </c>
+      <c r="C47">
+        <v>1143</v>
+      </c>
+      <c r="D47">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1604</v>
+      </c>
+      <c r="C48">
+        <v>263</v>
+      </c>
+      <c r="D48">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>877</v>
+      </c>
+      <c r="C49">
+        <v>539</v>
+      </c>
+      <c r="D49">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3359</v>
+      </c>
+      <c r="C50">
+        <v>897</v>
+      </c>
+      <c r="D50">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>358</v>
+      </c>
+      <c r="C51">
+        <v>204</v>
+      </c>
+      <c r="D51">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1114</v>
+      </c>
+      <c r="C52">
+        <v>367</v>
+      </c>
+      <c r="D52">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>124</v>
+      </c>
+      <c r="C53">
+        <v>138</v>
+      </c>
+      <c r="D53">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>360</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>410</v>
+      </c>
+      <c r="C55">
+        <v>288</v>
+      </c>
+      <c r="D55">
+        <v>698</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2024/2024_99_g_sharing.xlsx
+++ b/statistics_files/2024/2024_99_g_sharing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29040161-8770-4F38-B5C2-49079FC85087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84897703-7EBD-4710-B8AD-9579D2F1A883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -757,15 +757,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>7805</v>
+        <v>12270</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>2737</v>
+        <v>4095</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>10542</v>
+        <v>16365</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,15 +774,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>5167</v>
+        <v>7801</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>1082</v>
+        <v>1701</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>6249</v>
+        <v>9502</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,15 +791,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>15250</v>
+        <v>23491</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>2442</v>
+        <v>3732</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>17692</v>
+        <v>27223</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,15 +808,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>204</v>
+        <v>352</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>294</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,15 +825,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>10323</v>
+        <v>15387</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>2148</v>
+        <v>3354</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>12471</v>
+        <v>18741</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,15 +842,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>710</v>
+        <v>1219</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>488</v>
+        <v>779</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>1198</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,15 +859,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1054</v>
+        <v>1678</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>1276</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,15 +876,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>445</v>
+        <v>697</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>558</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -901,7 +901,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>166</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,15 +927,15 @@
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>321</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,15 +944,15 @@
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>368</v>
+        <v>693</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>375</v>
+        <v>541</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>743</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,15 +961,15 @@
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1021</v>
+        <v>1525</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>283</v>
+        <v>387</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>1304</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,15 +978,15 @@
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>693</v>
+        <v>1101</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>808</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,15 +995,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>475</v>
+        <v>779</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>607</v>
+        <v>981</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,15 +1012,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>2978</v>
+        <v>4726</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>1200</v>
+        <v>1810</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>4178</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,15 +1029,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>281</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,15 +1046,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>3067</v>
+        <v>4909</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>1118</v>
+        <v>1673</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>4185</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,15 +1080,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>3146</v>
+        <v>4957</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>837</v>
+        <v>1301</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>3983</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,15 +1097,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>236</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,15 +1114,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>3740</v>
+        <v>5450</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>1263</v>
+        <v>1899</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>5003</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,15 +1131,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>16784</v>
+        <v>25886</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>3610</v>
+        <v>5722</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>20394</v>
+        <v>31608</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,15 +1148,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1286</v>
+        <v>1885</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>1580</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,15 +1182,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>726</v>
+        <v>1080</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>456</v>
+        <v>720</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>1182</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,15 +1199,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>258</v>
+        <v>443</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>391</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,15 +1216,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>2079</v>
+        <v>3377</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>1111</v>
+        <v>1773</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>3190</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,15 +1233,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>122</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,15 +1250,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>558</v>
+        <v>879</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>700</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,15 +1267,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>2418</v>
+        <v>3760</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>858</v>
+        <v>1270</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>3276</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,15 +1284,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>1730</v>
+        <v>2587</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>609</v>
+        <v>908</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>2339</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,15 +1301,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>948</v>
+        <v>1429</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>287</v>
+        <v>469</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>1235</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,15 +1318,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>12403</v>
+        <v>18787</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>1619</v>
+        <v>2484</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>14022</v>
+        <v>21271</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,15 +1335,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1660</v>
+        <v>2478</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>411</v>
+        <v>631</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>2071</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,15 +1352,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>5588</v>
+        <v>8657</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>890</v>
+        <v>1377</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>6478</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,15 +1369,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>165</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,15 +1386,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>299</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,15 +1403,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>741</v>
+        <v>1076</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>833</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,15 +1420,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>3559</v>
+        <v>5130</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>3756</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,15 +1437,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,15 +1454,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>278</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,15 +1488,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>673</v>
+        <v>1019</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>810</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,15 +1505,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>2416</v>
+        <v>3745</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>1123</v>
+        <v>1567</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>3539</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,15 +1522,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>5550</v>
+        <v>8611</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>2230</v>
+        <v>3309</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>7780</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,15 +1539,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>2886</v>
+        <v>4504</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>527</v>
+        <v>826</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>3413</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>1767</v>
+        <v>2725</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>1052</v>
+        <v>1637</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>2819</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,15 +1573,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>6469</v>
+        <v>9700</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>1803</v>
+        <v>2727</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>8272</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,15 +1590,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>660</v>
+        <v>1074</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>391</v>
+        <v>662</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>1051</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,15 +1607,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>2220</v>
+        <v>3362</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>689</v>
+        <v>1067</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>2909</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,15 +1624,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>294</v>
+        <v>408</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>545</v>
+        <v>786</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,15 +1641,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>604</v>
+        <v>849</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>635</v>
+        <v>894</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,15 +1658,15 @@
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>826</v>
+        <v>1154</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>588</v>
+        <v>856</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>1414</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,15 +1675,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>2296</v>
+        <v>3581</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>880</v>
+        <v>1215</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>3176</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,15 +1692,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>4639</v>
+        <v>6687</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>4955</v>
+        <v>7100</v>
       </c>
     </row>
   </sheetData>
@@ -13329,15 +13329,15 @@
       </c>
       <c r="B2" s="2">
         <f>MarchRaw!B2</f>
-        <v>0</v>
+        <v>4465</v>
       </c>
       <c r="C2" s="2">
         <f>MarchRaw!C2</f>
-        <v>0</v>
+        <v>1358</v>
       </c>
       <c r="D2" s="2">
         <f>MarchRaw!D2</f>
-        <v>0</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13346,15 +13346,15 @@
       </c>
       <c r="B3" s="3">
         <f>MarchRaw!B3</f>
-        <v>0</v>
+        <v>2634</v>
       </c>
       <c r="C3" s="3">
         <f>MarchRaw!C3</f>
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="D3" s="3">
         <f>MarchRaw!D3</f>
-        <v>0</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13363,15 +13363,15 @@
       </c>
       <c r="B4" s="2">
         <f>MarchRaw!B4</f>
-        <v>0</v>
+        <v>8241</v>
       </c>
       <c r="C4" s="2">
         <f>MarchRaw!C4</f>
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="D4" s="2">
         <f>MarchRaw!D4</f>
-        <v>0</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13380,15 +13380,15 @@
       </c>
       <c r="B5" s="3">
         <f>MarchRaw!B5</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C5" s="3">
         <f>MarchRaw!C5</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3">
         <f>MarchRaw!D5</f>
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13397,15 +13397,15 @@
       </c>
       <c r="B6" s="2">
         <f>MarchRaw!B6</f>
-        <v>0</v>
+        <v>5064</v>
       </c>
       <c r="C6" s="2">
         <f>MarchRaw!C6</f>
-        <v>0</v>
+        <v>1206</v>
       </c>
       <c r="D6" s="2">
         <f>MarchRaw!D6</f>
-        <v>0</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13414,15 +13414,15 @@
       </c>
       <c r="B7" s="3">
         <f>MarchRaw!B7</f>
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="C7" s="3">
         <f>MarchRaw!C7</f>
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="D7" s="3">
         <f>MarchRaw!D7</f>
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13431,15 +13431,15 @@
       </c>
       <c r="B8" s="2">
         <f>MarchRaw!B8</f>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="C8" s="2">
         <f>MarchRaw!C8</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2">
         <f>MarchRaw!D8</f>
-        <v>0</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13448,15 +13448,15 @@
       </c>
       <c r="B9" s="3">
         <f>MarchRaw!B9</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="C9" s="3">
         <f>MarchRaw!C9</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3">
         <f>MarchRaw!D9</f>
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="B10" s="2">
         <f>MarchRaw!B10</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2">
         <f>MarchRaw!C10</f>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="D10" s="2">
         <f>MarchRaw!D10</f>
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13499,15 +13499,15 @@
       </c>
       <c r="B12" s="4">
         <f>MarchRaw!B12</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4">
         <f>MarchRaw!C12</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <f>MarchRaw!D12</f>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13516,15 +13516,15 @@
       </c>
       <c r="B13" s="5">
         <f>MarchRaw!B13</f>
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="C13" s="5">
         <f>MarchRaw!C13</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D13" s="5">
         <f>MarchRaw!D13</f>
-        <v>0</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13533,15 +13533,15 @@
       </c>
       <c r="B14" s="4">
         <f>MarchRaw!B14</f>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="C14" s="4">
         <f>MarchRaw!C14</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4">
         <f>MarchRaw!D14</f>
-        <v>0</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13550,15 +13550,15 @@
       </c>
       <c r="B15" s="5">
         <f>MarchRaw!B15</f>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C15" s="5">
         <f>MarchRaw!C15</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5">
         <f>MarchRaw!D15</f>
-        <v>0</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13567,15 +13567,15 @@
       </c>
       <c r="B16" s="2">
         <f>MarchRaw!B16</f>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="C16" s="2">
         <f>MarchRaw!C16</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2">
         <f>MarchRaw!D16</f>
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13584,15 +13584,15 @@
       </c>
       <c r="B17" s="3">
         <f>MarchRaw!B17</f>
-        <v>0</v>
+        <v>1748</v>
       </c>
       <c r="C17" s="3">
         <f>MarchRaw!C17</f>
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="D17" s="3">
         <f>MarchRaw!D17</f>
-        <v>0</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13601,15 +13601,15 @@
       </c>
       <c r="B18" s="2">
         <f>MarchRaw!B18</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2">
         <f>MarchRaw!C18</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <f>MarchRaw!D18</f>
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13618,15 +13618,15 @@
       </c>
       <c r="B19" s="3">
         <f>MarchRaw!B19</f>
-        <v>0</v>
+        <v>1842</v>
       </c>
       <c r="C19" s="3">
         <f>MarchRaw!C19</f>
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="D19" s="3">
         <f>MarchRaw!D19</f>
-        <v>0</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13635,15 +13635,15 @@
       </c>
       <c r="B20" s="2">
         <f>MarchRaw!B20</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2">
         <f>MarchRaw!C20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
         <f>MarchRaw!D20</f>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13652,15 +13652,15 @@
       </c>
       <c r="B21" s="3">
         <f>MarchRaw!B21</f>
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="C21" s="3">
         <f>MarchRaw!C21</f>
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D21" s="3">
         <f>MarchRaw!D21</f>
-        <v>0</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13669,15 +13669,15 @@
       </c>
       <c r="B22" s="2">
         <f>MarchRaw!B22</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2">
         <f>MarchRaw!C22</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <f>MarchRaw!D22</f>
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13686,15 +13686,15 @@
       </c>
       <c r="B23" s="3">
         <f>MarchRaw!B23</f>
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="C23" s="3">
         <f>MarchRaw!C23</f>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="D23" s="3">
         <f>MarchRaw!D23</f>
-        <v>0</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13703,15 +13703,15 @@
       </c>
       <c r="B24" s="2">
         <f>MarchRaw!B24</f>
-        <v>0</v>
+        <v>9102</v>
       </c>
       <c r="C24" s="2">
         <f>MarchRaw!C24</f>
-        <v>0</v>
+        <v>2112</v>
       </c>
       <c r="D24" s="2">
         <f>MarchRaw!D24</f>
-        <v>0</v>
+        <v>11214</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13720,15 +13720,15 @@
       </c>
       <c r="B25" s="3">
         <f>MarchRaw!B25</f>
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="C25" s="3">
         <f>MarchRaw!C25</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D25" s="3">
         <f>MarchRaw!D25</f>
-        <v>0</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13754,15 +13754,15 @@
       </c>
       <c r="B27" s="3">
         <f>MarchRaw!B27</f>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="C27" s="3">
         <f>MarchRaw!C27</f>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="D27" s="3">
         <f>MarchRaw!D27</f>
-        <v>0</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13771,15 +13771,15 @@
       </c>
       <c r="B28" s="2">
         <f>MarchRaw!B28</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2">
         <f>MarchRaw!C28</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2">
         <f>MarchRaw!D28</f>
-        <v>0</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13788,15 +13788,15 @@
       </c>
       <c r="B29" s="3">
         <f>MarchRaw!B29</f>
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="C29" s="3">
         <f>MarchRaw!C29</f>
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="D29" s="3">
         <f>MarchRaw!D29</f>
-        <v>0</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13805,15 +13805,15 @@
       </c>
       <c r="B30" s="2">
         <f>MarchRaw!B30</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2">
         <f>MarchRaw!C30</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
         <f>MarchRaw!D30</f>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13822,15 +13822,15 @@
       </c>
       <c r="B31" s="3">
         <f>MarchRaw!B31</f>
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="C31" s="3">
         <f>MarchRaw!C31</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3">
         <f>MarchRaw!D31</f>
-        <v>0</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13839,15 +13839,15 @@
       </c>
       <c r="B32" s="2">
         <f>MarchRaw!B32</f>
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="C32" s="2">
         <f>MarchRaw!C32</f>
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="D32" s="2">
         <f>MarchRaw!D32</f>
-        <v>0</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13856,15 +13856,15 @@
       </c>
       <c r="B33" s="3">
         <f>MarchRaw!B33</f>
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="C33" s="3">
         <f>MarchRaw!C33</f>
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="D33" s="3">
         <f>MarchRaw!D33</f>
-        <v>0</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13873,15 +13873,15 @@
       </c>
       <c r="B34" s="2">
         <f>MarchRaw!B34</f>
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="C34" s="2">
         <f>MarchRaw!C34</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2">
         <f>MarchRaw!D34</f>
-        <v>0</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13890,15 +13890,15 @@
       </c>
       <c r="B35" s="3">
         <f>MarchRaw!B35</f>
-        <v>0</v>
+        <v>6384</v>
       </c>
       <c r="C35" s="3">
         <f>MarchRaw!C35</f>
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="D35" s="3">
         <f>MarchRaw!D35</f>
-        <v>0</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13907,15 +13907,15 @@
       </c>
       <c r="B36" s="2">
         <f>MarchRaw!B36</f>
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="C36" s="2">
         <f>MarchRaw!C36</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2">
         <f>MarchRaw!D36</f>
-        <v>0</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13924,15 +13924,15 @@
       </c>
       <c r="B37" s="3">
         <f>MarchRaw!B37</f>
-        <v>0</v>
+        <v>3069</v>
       </c>
       <c r="C37" s="3">
         <f>MarchRaw!C37</f>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="D37" s="3">
         <f>MarchRaw!D37</f>
-        <v>0</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13941,15 +13941,15 @@
       </c>
       <c r="B38" s="2">
         <f>MarchRaw!B38</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2">
         <f>MarchRaw!C38</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <f>MarchRaw!D38</f>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13958,15 +13958,15 @@
       </c>
       <c r="B39" s="3">
         <f>MarchRaw!B39</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3">
         <f>MarchRaw!C39</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D39" s="3">
         <f>MarchRaw!D39</f>
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13975,15 +13975,15 @@
       </c>
       <c r="B40" s="6">
         <f>MarchRaw!B40</f>
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="C40" s="6">
         <f>MarchRaw!C40</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D40" s="6">
         <f>MarchRaw!D40</f>
-        <v>0</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13992,15 +13992,15 @@
       </c>
       <c r="B41" s="7">
         <f>MarchRaw!B41</f>
-        <v>0</v>
+        <v>1571</v>
       </c>
       <c r="C41" s="7">
         <f>MarchRaw!C41</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D41" s="7">
         <f>MarchRaw!D41</f>
-        <v>0</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14009,15 +14009,15 @@
       </c>
       <c r="B42" s="6">
         <f>MarchRaw!B42</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C42" s="6">
         <f>MarchRaw!C42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
         <f>MarchRaw!D42</f>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14026,15 +14026,15 @@
       </c>
       <c r="B43" s="7">
         <f>MarchRaw!B43</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C43" s="7">
         <f>MarchRaw!C43</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D43" s="7">
         <f>MarchRaw!D43</f>
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14060,15 +14060,15 @@
       </c>
       <c r="B45" s="3">
         <f>MarchRaw!B45</f>
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C45" s="3">
         <f>MarchRaw!C45</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D45" s="3">
         <f>MarchRaw!D45</f>
-        <v>0</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14077,15 +14077,15 @@
       </c>
       <c r="B46" s="2">
         <f>MarchRaw!B46</f>
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="C46" s="2">
         <f>MarchRaw!C46</f>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="D46" s="2">
         <f>MarchRaw!D46</f>
-        <v>0</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14094,15 +14094,15 @@
       </c>
       <c r="B47" s="3">
         <f>MarchRaw!B47</f>
-        <v>0</v>
+        <v>3061</v>
       </c>
       <c r="C47" s="3">
         <f>MarchRaw!C47</f>
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="D47" s="3">
         <f>MarchRaw!D47</f>
-        <v>0</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14111,15 +14111,15 @@
       </c>
       <c r="B48" s="2">
         <f>MarchRaw!B48</f>
-        <v>0</v>
+        <v>1618</v>
       </c>
       <c r="C48" s="2">
         <f>MarchRaw!C48</f>
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="D48" s="2">
         <f>MarchRaw!D48</f>
-        <v>0</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14128,15 +14128,15 @@
       </c>
       <c r="B49" s="3">
         <f>MarchRaw!B49</f>
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="C49" s="3">
         <f>MarchRaw!C49</f>
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="D49" s="3">
         <f>MarchRaw!D49</f>
-        <v>0</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14145,15 +14145,15 @@
       </c>
       <c r="B50" s="2">
         <f>MarchRaw!B50</f>
-        <v>0</v>
+        <v>3231</v>
       </c>
       <c r="C50" s="2">
         <f>MarchRaw!C50</f>
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="D50" s="2">
         <f>MarchRaw!D50</f>
-        <v>0</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14162,15 +14162,15 @@
       </c>
       <c r="B51" s="3">
         <f>MarchRaw!B51</f>
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="C51" s="3">
         <f>MarchRaw!C51</f>
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D51" s="3">
         <f>MarchRaw!D51</f>
-        <v>0</v>
+        <v>685</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14179,15 +14179,15 @@
       </c>
       <c r="B52" s="2">
         <f>MarchRaw!B52</f>
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="C52" s="2">
         <f>MarchRaw!C52</f>
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="D52" s="2">
         <f>MarchRaw!D52</f>
-        <v>0</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14196,15 +14196,15 @@
       </c>
       <c r="B53" s="3">
         <f>MarchRaw!B53</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C53" s="3">
         <f>MarchRaw!C53</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D53" s="3">
         <f>MarchRaw!D53</f>
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14213,15 +14213,15 @@
       </c>
       <c r="B54" s="2">
         <f>MarchRaw!B54</f>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="C54" s="2">
         <f>MarchRaw!C54</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2">
         <f>MarchRaw!D54</f>
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14230,15 +14230,15 @@
       </c>
       <c r="B55" s="3">
         <f>MarchRaw!B55</f>
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="C55" s="3">
         <f>MarchRaw!C55</f>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="D55" s="3">
         <f>MarchRaw!D55</f>
-        <v>0</v>
+        <v>596</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14247,15 +14247,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1285</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14264,15 +14264,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2145</v>
       </c>
     </row>
   </sheetData>
@@ -14284,12 +14284,753 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0184AB-F943-4510-BD07-EF09AB50B3B5}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4465</v>
+      </c>
+      <c r="C2">
+        <v>1358</v>
+      </c>
+      <c r="D2">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2634</v>
+      </c>
+      <c r="C3">
+        <v>619</v>
+      </c>
+      <c r="D3">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8241</v>
+      </c>
+      <c r="C4">
+        <v>1290</v>
+      </c>
+      <c r="D4">
+        <v>9531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5064</v>
+      </c>
+      <c r="C6">
+        <v>1206</v>
+      </c>
+      <c r="D6">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>509</v>
+      </c>
+      <c r="C7">
+        <v>291</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>624</v>
+      </c>
+      <c r="C8">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>252</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>325</v>
+      </c>
+      <c r="C13">
+        <v>166</v>
+      </c>
+      <c r="D13">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>504</v>
+      </c>
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>408</v>
+      </c>
+      <c r="C15">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>304</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1748</v>
+      </c>
+      <c r="C17">
+        <v>610</v>
+      </c>
+      <c r="D17">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>141</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1842</v>
+      </c>
+      <c r="C19">
+        <v>555</v>
+      </c>
+      <c r="D19">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1811</v>
+      </c>
+      <c r="C21">
+        <v>464</v>
+      </c>
+      <c r="D21">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>116</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1710</v>
+      </c>
+      <c r="C23">
+        <v>636</v>
+      </c>
+      <c r="D23">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>9102</v>
+      </c>
+      <c r="C24">
+        <v>2112</v>
+      </c>
+      <c r="D24">
+        <v>11214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>599</v>
+      </c>
+      <c r="C25">
+        <v>168</v>
+      </c>
+      <c r="D25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>354</v>
+      </c>
+      <c r="C27">
+        <v>264</v>
+      </c>
+      <c r="D27">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>185</v>
+      </c>
+      <c r="C28">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1298</v>
+      </c>
+      <c r="C29">
+        <v>662</v>
+      </c>
+      <c r="D29">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>321</v>
+      </c>
+      <c r="C31">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1342</v>
+      </c>
+      <c r="C32">
+        <v>412</v>
+      </c>
+      <c r="D32">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>857</v>
+      </c>
+      <c r="C33">
+        <v>299</v>
+      </c>
+      <c r="D33">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>481</v>
+      </c>
+      <c r="C34">
+        <v>182</v>
+      </c>
+      <c r="D34">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6384</v>
+      </c>
+      <c r="C35">
+        <v>865</v>
+      </c>
+      <c r="D35">
+        <v>7249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>818</v>
+      </c>
+      <c r="C36">
+        <v>220</v>
+      </c>
+      <c r="D36">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3069</v>
+      </c>
+      <c r="C37">
+        <v>487</v>
+      </c>
+      <c r="D37">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>109</v>
+      </c>
+      <c r="D39">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>335</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1571</v>
+      </c>
+      <c r="C41">
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>99</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>346</v>
+      </c>
+      <c r="C45">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1329</v>
+      </c>
+      <c r="C46">
+        <v>444</v>
+      </c>
+      <c r="D46">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3061</v>
+      </c>
+      <c r="C47">
+        <v>1079</v>
+      </c>
+      <c r="D47">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1618</v>
+      </c>
+      <c r="C48">
+        <v>299</v>
+      </c>
+      <c r="D48">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>958</v>
+      </c>
+      <c r="C49">
+        <v>585</v>
+      </c>
+      <c r="D49">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3231</v>
+      </c>
+      <c r="C50">
+        <v>924</v>
+      </c>
+      <c r="D50">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>414</v>
+      </c>
+      <c r="C51">
+        <v>271</v>
+      </c>
+      <c r="D51">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1142</v>
+      </c>
+      <c r="C52">
+        <v>378</v>
+      </c>
+      <c r="D52">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>114</v>
+      </c>
+      <c r="C53">
+        <v>127</v>
+      </c>
+      <c r="D53">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>245</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>328</v>
+      </c>
+      <c r="C55">
+        <v>268</v>
+      </c>
+      <c r="D55">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2024/2024_99_g_sharing.xlsx
+++ b/statistics_files/2024/2024_99_g_sharing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84897703-7EBD-4710-B8AD-9579D2F1A883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28994D7F-53BC-43F0-8AF2-ED30DD643E92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="7" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -724,7 +724,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -757,15 +757,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>12270</v>
+        <v>16330</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>4095</v>
+        <v>5434</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>16365</v>
+        <v>21764</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,15 +774,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>7801</v>
+        <v>10504</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>1701</v>
+        <v>2304</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>9502</v>
+        <v>12808</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,15 +791,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>23491</v>
+        <v>31464</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>3732</v>
+        <v>4838</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>27223</v>
+        <v>36302</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,15 +808,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>468</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,15 +825,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>15387</v>
+        <v>20181</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>3354</v>
+        <v>4345</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>18741</v>
+        <v>24526</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,15 +842,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1219</v>
+        <v>1759</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>779</v>
+        <v>1280</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>1998</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,15 +859,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1678</v>
+        <v>2197</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>331</v>
+        <v>451</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>2009</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,15 +876,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>697</v>
+        <v>1008</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>848</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,15 +893,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>257</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,15 +927,15 @@
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>390</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,15 +944,15 @@
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>693</v>
+        <v>882</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>541</v>
+        <v>689</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>1234</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,15 +961,15 @@
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1525</v>
+        <v>1976</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>387</v>
+        <v>551</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>1912</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,15 +978,15 @@
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1101</v>
+        <v>1582</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>1260</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,15 +995,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>779</v>
+        <v>1074</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>981</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,15 +1012,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>4726</v>
+        <v>6380</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>1810</v>
+        <v>2324</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>6536</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,15 +1029,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>486</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,15 +1046,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>4909</v>
+        <v>6637</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>1673</v>
+        <v>2310</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>6582</v>
+        <v>8947</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,15 +1080,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>4957</v>
+        <v>6488</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>1301</v>
+        <v>1711</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>6258</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,15 +1097,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>379</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,15 +1114,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>5450</v>
+        <v>7080</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>1899</v>
+        <v>2570</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>7349</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,15 +1131,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>25886</v>
+        <v>34474</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>5722</v>
+        <v>7461</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>31608</v>
+        <v>41935</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,15 +1148,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1885</v>
+        <v>2491</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>462</v>
+        <v>599</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>2347</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,15 +1182,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1080</v>
+        <v>1519</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>720</v>
+        <v>943</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>1800</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,15 +1199,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>443</v>
+        <v>617</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>649</v>
+        <v>937</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,15 +1216,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>3377</v>
+        <v>4718</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>1773</v>
+        <v>2349</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>5150</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,15 +1233,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>189</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,15 +1250,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>879</v>
+        <v>1188</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>1073</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,15 +1267,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>3760</v>
+        <v>5039</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>1270</v>
+        <v>1730</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>5030</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,15 +1284,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>2587</v>
+        <v>3591</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>908</v>
+        <v>1208</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>3495</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,15 +1301,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1429</v>
+        <v>1904</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>469</v>
+        <v>623</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>1898</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,15 +1318,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>18787</v>
+        <v>25021</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>2484</v>
+        <v>3315</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>21271</v>
+        <v>28336</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,15 +1335,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>2478</v>
+        <v>3212</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>631</v>
+        <v>809</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>3109</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,15 +1352,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>8657</v>
+        <v>11627</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>1377</v>
+        <v>1805</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>10034</v>
+        <v>13432</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,15 +1369,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>253</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,15 +1386,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>464</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,15 +1403,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>1076</v>
+        <v>1717</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>1191</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,15 +1420,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>5130</v>
+        <v>6893</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>5389</v>
+        <v>7228</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,15 +1437,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,15 +1454,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>386</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,15 +1488,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>1019</v>
+        <v>1291</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>1241</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,15 +1505,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>3745</v>
+        <v>5005</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>1567</v>
+        <v>2044</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>5312</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,15 +1522,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>8611</v>
+        <v>11743</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>3309</v>
+        <v>4413</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>11920</v>
+        <v>16156</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,15 +1539,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>4504</v>
+        <v>5954</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>826</v>
+        <v>1099</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>5330</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>2725</v>
+        <v>3774</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>1637</v>
+        <v>2165</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>4362</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,15 +1573,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>9700</v>
+        <v>12681</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>2727</v>
+        <v>3735</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>12427</v>
+        <v>16416</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,15 +1590,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1074</v>
+        <v>1495</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>662</v>
+        <v>876</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>1736</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,15 +1607,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>3362</v>
+        <v>4260</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1067</v>
+        <v>1362</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>4429</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,15 +1624,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>408</v>
+        <v>542</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>378</v>
+        <v>495</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>786</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,15 +1641,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>849</v>
+        <v>1180</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>894</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,15 +1658,15 @@
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>1154</v>
+        <v>1369</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>856</v>
+        <v>1131</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>2010</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,15 +1675,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>3581</v>
+        <v>4774</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>1215</v>
+        <v>1606</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>4796</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,15 +1692,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>6687</v>
+        <v>9236</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>413</v>
+        <v>510</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>7100</v>
+        <v>9746</v>
       </c>
     </row>
   </sheetData>
@@ -15040,7 +15040,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -15073,15 +15073,15 @@
       </c>
       <c r="B2" s="2">
         <f>AprilRaw!B2</f>
-        <v>0</v>
+        <v>4060</v>
       </c>
       <c r="C2" s="2">
         <f>AprilRaw!C2</f>
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="D2" s="2">
         <f>AprilRaw!D2</f>
-        <v>0</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15090,15 +15090,15 @@
       </c>
       <c r="B3" s="3">
         <f>AprilRaw!B3</f>
-        <v>0</v>
+        <v>2703</v>
       </c>
       <c r="C3" s="3">
         <f>AprilRaw!C3</f>
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="D3" s="3">
         <f>AprilRaw!D3</f>
-        <v>0</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15107,15 +15107,15 @@
       </c>
       <c r="B4" s="2">
         <f>AprilRaw!B4</f>
-        <v>0</v>
+        <v>7973</v>
       </c>
       <c r="C4" s="2">
         <f>AprilRaw!C4</f>
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="D4" s="2">
         <f>AprilRaw!D4</f>
-        <v>0</v>
+        <v>9079</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15124,15 +15124,15 @@
       </c>
       <c r="B5" s="3">
         <f>AprilRaw!B5</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3">
         <f>AprilRaw!C5</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3">
         <f>AprilRaw!D5</f>
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15141,15 +15141,15 @@
       </c>
       <c r="B6" s="2">
         <f>AprilRaw!B6</f>
-        <v>0</v>
+        <v>4794</v>
       </c>
       <c r="C6" s="2">
         <f>AprilRaw!C6</f>
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="D6" s="2">
         <f>AprilRaw!D6</f>
-        <v>0</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15158,15 +15158,15 @@
       </c>
       <c r="B7" s="3">
         <f>AprilRaw!B7</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="C7" s="3">
         <f>AprilRaw!C7</f>
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="D7" s="3">
         <f>AprilRaw!D7</f>
-        <v>0</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15175,15 +15175,15 @@
       </c>
       <c r="B8" s="2">
         <f>AprilRaw!B8</f>
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="C8" s="2">
         <f>AprilRaw!C8</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2">
         <f>AprilRaw!D8</f>
-        <v>0</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15192,15 +15192,15 @@
       </c>
       <c r="B9" s="3">
         <f>AprilRaw!B9</f>
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="C9" s="3">
         <f>AprilRaw!C9</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3">
         <f>AprilRaw!D9</f>
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15209,15 +15209,15 @@
       </c>
       <c r="B10" s="2">
         <f>AprilRaw!B10</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
         <f>AprilRaw!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f>AprilRaw!D10</f>
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15243,15 +15243,15 @@
       </c>
       <c r="B12" s="4">
         <f>AprilRaw!B12</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4">
         <f>AprilRaw!C12</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4">
         <f>AprilRaw!D12</f>
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15260,15 +15260,15 @@
       </c>
       <c r="B13" s="5">
         <f>AprilRaw!B13</f>
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="C13" s="5">
         <f>AprilRaw!C13</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D13" s="5">
         <f>AprilRaw!D13</f>
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15277,15 +15277,15 @@
       </c>
       <c r="B14" s="4">
         <f>AprilRaw!B14</f>
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C14" s="4">
         <f>AprilRaw!C14</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D14" s="4">
         <f>AprilRaw!D14</f>
-        <v>0</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15294,15 +15294,15 @@
       </c>
       <c r="B15" s="5">
         <f>AprilRaw!B15</f>
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="C15" s="5">
         <f>AprilRaw!C15</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5">
         <f>AprilRaw!D15</f>
-        <v>0</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15311,15 +15311,15 @@
       </c>
       <c r="B16" s="2">
         <f>AprilRaw!B16</f>
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C16" s="2">
         <f>AprilRaw!C16</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2">
         <f>AprilRaw!D16</f>
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15328,15 +15328,15 @@
       </c>
       <c r="B17" s="3">
         <f>AprilRaw!B17</f>
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="C17" s="3">
         <f>AprilRaw!C17</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="D17" s="3">
         <f>AprilRaw!D17</f>
-        <v>0</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15345,15 +15345,15 @@
       </c>
       <c r="B18" s="2">
         <f>AprilRaw!B18</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2">
         <f>AprilRaw!C18</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2">
         <f>AprilRaw!D18</f>
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15362,15 +15362,15 @@
       </c>
       <c r="B19" s="3">
         <f>AprilRaw!B19</f>
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="C19" s="3">
         <f>AprilRaw!C19</f>
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="D19" s="3">
         <f>AprilRaw!D19</f>
-        <v>0</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15379,15 +15379,15 @@
       </c>
       <c r="B20" s="2">
         <f>AprilRaw!B20</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2">
         <f>AprilRaw!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <f>AprilRaw!D20</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15396,15 +15396,15 @@
       </c>
       <c r="B21" s="3">
         <f>AprilRaw!B21</f>
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="C21" s="3">
         <f>AprilRaw!C21</f>
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D21" s="3">
         <f>AprilRaw!D21</f>
-        <v>0</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15413,15 +15413,15 @@
       </c>
       <c r="B22" s="2">
         <f>AprilRaw!B22</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="C22" s="2">
         <f>AprilRaw!C22</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2">
         <f>AprilRaw!D22</f>
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15430,15 +15430,15 @@
       </c>
       <c r="B23" s="3">
         <f>AprilRaw!B23</f>
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="C23" s="3">
         <f>AprilRaw!C23</f>
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="D23" s="3">
         <f>AprilRaw!D23</f>
-        <v>0</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15447,15 +15447,15 @@
       </c>
       <c r="B24" s="2">
         <f>AprilRaw!B24</f>
-        <v>0</v>
+        <v>8588</v>
       </c>
       <c r="C24" s="2">
         <f>AprilRaw!C24</f>
-        <v>0</v>
+        <v>1739</v>
       </c>
       <c r="D24" s="2">
         <f>AprilRaw!D24</f>
-        <v>0</v>
+        <v>10327</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15464,15 +15464,15 @@
       </c>
       <c r="B25" s="3">
         <f>AprilRaw!B25</f>
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="C25" s="3">
         <f>AprilRaw!C25</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D25" s="3">
         <f>AprilRaw!D25</f>
-        <v>0</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15498,15 +15498,15 @@
       </c>
       <c r="B27" s="3">
         <f>AprilRaw!B27</f>
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="C27" s="3">
         <f>AprilRaw!C27</f>
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D27" s="3">
         <f>AprilRaw!D27</f>
-        <v>0</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15515,15 +15515,15 @@
       </c>
       <c r="B28" s="2">
         <f>AprilRaw!B28</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2">
         <f>AprilRaw!C28</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2">
         <f>AprilRaw!D28</f>
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15532,15 +15532,15 @@
       </c>
       <c r="B29" s="3">
         <f>AprilRaw!B29</f>
-        <v>0</v>
+        <v>1341</v>
       </c>
       <c r="C29" s="3">
         <f>AprilRaw!C29</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="D29" s="3">
         <f>AprilRaw!D29</f>
-        <v>0</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15549,15 +15549,15 @@
       </c>
       <c r="B30" s="2">
         <f>AprilRaw!B30</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2">
         <f>AprilRaw!C30</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2">
         <f>AprilRaw!D30</f>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15566,15 +15566,15 @@
       </c>
       <c r="B31" s="3">
         <f>AprilRaw!B31</f>
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="C31" s="3">
         <f>AprilRaw!C31</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D31" s="3">
         <f>AprilRaw!D31</f>
-        <v>0</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15583,15 +15583,15 @@
       </c>
       <c r="B32" s="2">
         <f>AprilRaw!B32</f>
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="C32" s="2">
         <f>AprilRaw!C32</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="D32" s="2">
         <f>AprilRaw!D32</f>
-        <v>0</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15600,15 +15600,15 @@
       </c>
       <c r="B33" s="3">
         <f>AprilRaw!B33</f>
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="C33" s="3">
         <f>AprilRaw!C33</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D33" s="3">
         <f>AprilRaw!D33</f>
-        <v>0</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15617,15 +15617,15 @@
       </c>
       <c r="B34" s="2">
         <f>AprilRaw!B34</f>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="C34" s="2">
         <f>AprilRaw!C34</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D34" s="2">
         <f>AprilRaw!D34</f>
-        <v>0</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15634,15 +15634,15 @@
       </c>
       <c r="B35" s="3">
         <f>AprilRaw!B35</f>
-        <v>0</v>
+        <v>6234</v>
       </c>
       <c r="C35" s="3">
         <f>AprilRaw!C35</f>
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="D35" s="3">
         <f>AprilRaw!D35</f>
-        <v>0</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15651,15 +15651,15 @@
       </c>
       <c r="B36" s="2">
         <f>AprilRaw!B36</f>
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="C36" s="2">
         <f>AprilRaw!C36</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D36" s="2">
         <f>AprilRaw!D36</f>
-        <v>0</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15668,15 +15668,15 @@
       </c>
       <c r="B37" s="3">
         <f>AprilRaw!B37</f>
-        <v>0</v>
+        <v>2970</v>
       </c>
       <c r="C37" s="3">
         <f>AprilRaw!C37</f>
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="D37" s="3">
         <f>AprilRaw!D37</f>
-        <v>0</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15685,15 +15685,15 @@
       </c>
       <c r="B38" s="2">
         <f>AprilRaw!B38</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2">
         <f>AprilRaw!C38</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <f>AprilRaw!D38</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15702,15 +15702,15 @@
       </c>
       <c r="B39" s="3">
         <f>AprilRaw!B39</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C39" s="3">
         <f>AprilRaw!C39</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D39" s="3">
         <f>AprilRaw!D39</f>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15719,15 +15719,15 @@
       </c>
       <c r="B40" s="6">
         <f>AprilRaw!B40</f>
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="C40" s="6">
         <f>AprilRaw!C40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="6">
         <f>AprilRaw!D40</f>
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15736,15 +15736,15 @@
       </c>
       <c r="B41" s="7">
         <f>AprilRaw!B41</f>
-        <v>0</v>
+        <v>1763</v>
       </c>
       <c r="C41" s="7">
         <f>AprilRaw!C41</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D41" s="7">
         <f>AprilRaw!D41</f>
-        <v>0</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15753,15 +15753,15 @@
       </c>
       <c r="B42" s="6">
         <f>AprilRaw!B42</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C42" s="6">
         <f>AprilRaw!C42</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D42" s="6">
         <f>AprilRaw!D42</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15770,15 +15770,15 @@
       </c>
       <c r="B43" s="7">
         <f>AprilRaw!B43</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C43" s="7">
         <f>AprilRaw!C43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D43" s="7">
         <f>AprilRaw!D43</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15804,15 +15804,15 @@
       </c>
       <c r="B45" s="3">
         <f>AprilRaw!B45</f>
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C45" s="3">
         <f>AprilRaw!C45</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D45" s="3">
         <f>AprilRaw!D45</f>
-        <v>0</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15821,15 +15821,15 @@
       </c>
       <c r="B46" s="2">
         <f>AprilRaw!B46</f>
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="C46" s="2">
         <f>AprilRaw!C46</f>
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="D46" s="2">
         <f>AprilRaw!D46</f>
-        <v>0</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15838,15 +15838,15 @@
       </c>
       <c r="B47" s="3">
         <f>AprilRaw!B47</f>
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="C47" s="3">
         <f>AprilRaw!C47</f>
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="D47" s="3">
         <f>AprilRaw!D47</f>
-        <v>0</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15855,15 +15855,15 @@
       </c>
       <c r="B48" s="2">
         <f>AprilRaw!B48</f>
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="C48" s="2">
         <f>AprilRaw!C48</f>
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="D48" s="2">
         <f>AprilRaw!D48</f>
-        <v>0</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15872,15 +15872,15 @@
       </c>
       <c r="B49" s="3">
         <f>AprilRaw!B49</f>
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="C49" s="3">
         <f>AprilRaw!C49</f>
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="D49" s="3">
         <f>AprilRaw!D49</f>
-        <v>0</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15889,15 +15889,15 @@
       </c>
       <c r="B50" s="2">
         <f>AprilRaw!B50</f>
-        <v>0</v>
+        <v>2981</v>
       </c>
       <c r="C50" s="2">
         <f>AprilRaw!C50</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="D50" s="2">
         <f>AprilRaw!D50</f>
-        <v>0</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15906,15 +15906,15 @@
       </c>
       <c r="B51" s="3">
         <f>AprilRaw!B51</f>
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="C51" s="3">
         <f>AprilRaw!C51</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D51" s="3">
         <f>AprilRaw!D51</f>
-        <v>0</v>
+        <v>635</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15923,15 +15923,15 @@
       </c>
       <c r="B52" s="2">
         <f>AprilRaw!B52</f>
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="C52" s="2">
         <f>AprilRaw!C52</f>
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="D52" s="2">
         <f>AprilRaw!D52</f>
-        <v>0</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15940,15 +15940,15 @@
       </c>
       <c r="B53" s="3">
         <f>AprilRaw!B53</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C53" s="3">
         <f>AprilRaw!C53</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D53" s="3">
         <f>AprilRaw!D53</f>
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15957,15 +15957,15 @@
       </c>
       <c r="B54" s="2">
         <f>AprilRaw!B54</f>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="C54" s="2">
         <f>AprilRaw!C54</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <f>AprilRaw!D54</f>
-        <v>0</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15974,15 +15974,15 @@
       </c>
       <c r="B55" s="3">
         <f>AprilRaw!B55</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="C55" s="3">
         <f>AprilRaw!C55</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="D55" s="3">
         <f>AprilRaw!D55</f>
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15991,15 +15991,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16008,15 +16008,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>2549</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2646</v>
       </c>
     </row>
   </sheetData>
@@ -16028,12 +16028,756 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8F93A-FD16-4201-B60D-E1607F24DB6B}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4060</v>
+      </c>
+      <c r="C2">
+        <v>1339</v>
+      </c>
+      <c r="D2">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2703</v>
+      </c>
+      <c r="C3">
+        <v>603</v>
+      </c>
+      <c r="D3">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7973</v>
+      </c>
+      <c r="C4">
+        <v>1106</v>
+      </c>
+      <c r="D4">
+        <v>9079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4794</v>
+      </c>
+      <c r="C6">
+        <v>991</v>
+      </c>
+      <c r="D6">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>540</v>
+      </c>
+      <c r="C7">
+        <v>501</v>
+      </c>
+      <c r="D7">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>519</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>311</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <v>148</v>
+      </c>
+      <c r="D13">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>451</v>
+      </c>
+      <c r="C14">
+        <v>164</v>
+      </c>
+      <c r="D14">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>481</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>295</v>
+      </c>
+      <c r="C16">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1654</v>
+      </c>
+      <c r="C17">
+        <v>514</v>
+      </c>
+      <c r="D17">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1728</v>
+      </c>
+      <c r="C19">
+        <v>637</v>
+      </c>
+      <c r="D19">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1531</v>
+      </c>
+      <c r="C21">
+        <v>410</v>
+      </c>
+      <c r="D21">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>117</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1630</v>
+      </c>
+      <c r="C23">
+        <v>671</v>
+      </c>
+      <c r="D23">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8588</v>
+      </c>
+      <c r="C24">
+        <v>1739</v>
+      </c>
+      <c r="D24">
+        <v>10327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>606</v>
+      </c>
+      <c r="C25">
+        <v>137</v>
+      </c>
+      <c r="D25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>439</v>
+      </c>
+      <c r="C27">
+        <v>223</v>
+      </c>
+      <c r="D27">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>174</v>
+      </c>
+      <c r="C28">
+        <v>114</v>
+      </c>
+      <c r="D28">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1341</v>
+      </c>
+      <c r="C29">
+        <v>576</v>
+      </c>
+      <c r="D29">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>309</v>
+      </c>
+      <c r="C31">
+        <v>82</v>
+      </c>
+      <c r="D31">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1279</v>
+      </c>
+      <c r="C32">
+        <v>460</v>
+      </c>
+      <c r="D32">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1004</v>
+      </c>
+      <c r="C33">
+        <v>300</v>
+      </c>
+      <c r="D33">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>475</v>
+      </c>
+      <c r="C34">
+        <v>154</v>
+      </c>
+      <c r="D34">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6234</v>
+      </c>
+      <c r="C35">
+        <v>831</v>
+      </c>
+      <c r="D35">
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>734</v>
+      </c>
+      <c r="C36">
+        <v>178</v>
+      </c>
+      <c r="D36">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2970</v>
+      </c>
+      <c r="C37">
+        <v>428</v>
+      </c>
+      <c r="D37">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>63</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>641</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1763</v>
+      </c>
+      <c r="C41">
+        <v>76</v>
+      </c>
+      <c r="D41">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>272</v>
+      </c>
+      <c r="C45">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1260</v>
+      </c>
+      <c r="C46">
+        <v>477</v>
+      </c>
+      <c r="D46">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3132</v>
+      </c>
+      <c r="C47">
+        <v>1104</v>
+      </c>
+      <c r="D47">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1450</v>
+      </c>
+      <c r="C48">
+        <v>273</v>
+      </c>
+      <c r="D48">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1049</v>
+      </c>
+      <c r="C49">
+        <v>528</v>
+      </c>
+      <c r="D49">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2981</v>
+      </c>
+      <c r="C50">
+        <v>1008</v>
+      </c>
+      <c r="D50">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>421</v>
+      </c>
+      <c r="C51">
+        <v>214</v>
+      </c>
+      <c r="D51">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>898</v>
+      </c>
+      <c r="C52">
+        <v>295</v>
+      </c>
+      <c r="D52">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>134</v>
+      </c>
+      <c r="C53">
+        <v>117</v>
+      </c>
+      <c r="D53">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>331</v>
+      </c>
+      <c r="C54">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>215</v>
+      </c>
+      <c r="C55">
+        <v>275</v>
+      </c>
+      <c r="D55">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statistics_files/2024/2024_99_g_sharing.xlsx
+++ b/statistics_files/2024/2024_99_g_sharing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28994D7F-53BC-43F0-8AF2-ED30DD643E92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B85FF-FB05-4805-B399-7604B404E9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="7" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -724,7 +724,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -757,15 +757,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>16330</v>
+        <v>20925</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>5434</v>
+        <v>6773</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>21764</v>
+        <v>27698</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,15 +774,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>10504</v>
+        <v>13519</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>2304</v>
+        <v>2848</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>12808</v>
+        <v>16367</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,15 +791,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>31464</v>
+        <v>39783</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>4838</v>
+        <v>6005</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>36302</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,15 +808,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>454</v>
+        <v>615</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>610</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,15 +825,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>20181</v>
+        <v>25497</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>4345</v>
+        <v>5389</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>24526</v>
+        <v>30886</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,15 +842,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1759</v>
+        <v>2207</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1280</v>
+        <v>1611</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>3039</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,15 +859,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>2197</v>
+        <v>2921</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>451</v>
+        <v>585</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>2648</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,15 +876,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>1008</v>
+        <v>1430</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>1210</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -901,7 +901,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>330</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,15 +927,15 @@
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>334</v>
+        <v>491</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>494</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,15 +944,15 @@
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>882</v>
+        <v>1159</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>689</v>
+        <v>826</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>1571</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,15 +961,15 @@
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1976</v>
+        <v>2505</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>551</v>
+        <v>714</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>2527</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,15 +978,15 @@
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1582</v>
+        <v>2054</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>1788</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,15 +995,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>1074</v>
+        <v>1459</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>1357</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,15 +1012,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>6380</v>
+        <v>8616</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>2324</v>
+        <v>2932</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>8704</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,15 +1029,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>324</v>
+        <v>464</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>625</v>
+        <v>836</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,15 +1046,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>6637</v>
+        <v>8691</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>2310</v>
+        <v>2827</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>8947</v>
+        <v>11518</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,15 +1080,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>6488</v>
+        <v>8476</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>1711</v>
+        <v>2128</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>8199</v>
+        <v>10604</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,15 +1097,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>435</v>
+        <v>545</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>536</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,15 +1114,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>7080</v>
+        <v>8957</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>2570</v>
+        <v>3160</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>9650</v>
+        <v>12117</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,15 +1131,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>34474</v>
+        <v>42870</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>7461</v>
+        <v>8952</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>41935</v>
+        <v>51822</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,15 +1148,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>2491</v>
+        <v>3170</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>599</v>
+        <v>727</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>3090</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,15 +1182,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1519</v>
+        <v>2001</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>943</v>
+        <v>1197</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>2462</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,15 +1199,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>617</v>
+        <v>827</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>937</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,15 +1216,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>4718</v>
+        <v>6303</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>2349</v>
+        <v>2811</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>7067</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,15 +1233,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>271</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,15 +1250,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>1188</v>
+        <v>1621</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>1464</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,15 +1267,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>5039</v>
+        <v>6694</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>1730</v>
+        <v>2155</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>6769</v>
+        <v>8849</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,15 +1284,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>3591</v>
+        <v>4849</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>1208</v>
+        <v>1555</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>4799</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,15 +1301,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1904</v>
+        <v>2353</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>623</v>
+        <v>786</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>2527</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,15 +1318,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>25021</v>
+        <v>32396</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>3315</v>
+        <v>4063</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>28336</v>
+        <v>36459</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,15 +1335,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>3212</v>
+        <v>4135</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>809</v>
+        <v>965</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>4021</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,15 +1352,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>11627</v>
+        <v>15106</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>1805</v>
+        <v>2265</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>13432</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,15 +1369,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>351</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,15 +1386,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>574</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>1717</v>
+        <v>1821</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>1834</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,15 +1420,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>6893</v>
+        <v>7038</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>7228</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,15 +1437,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,15 +1488,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>1291</v>
+        <v>1656</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>1576</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,15 +1505,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>5005</v>
+        <v>6285</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>2044</v>
+        <v>2529</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>7049</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,15 +1522,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>11743</v>
+        <v>16601</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>4413</v>
+        <v>5285</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>16156</v>
+        <v>21886</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,15 +1539,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>5954</v>
+        <v>8344</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>1099</v>
+        <v>1322</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>7053</v>
+        <v>9666</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>3774</v>
+        <v>4925</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>2165</v>
+        <v>2613</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>5939</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,15 +1573,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>12681</v>
+        <v>16852</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>3735</v>
+        <v>4616</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>16416</v>
+        <v>21468</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,15 +1590,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1495</v>
+        <v>1979</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>876</v>
+        <v>1036</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>2371</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,15 +1607,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>4260</v>
+        <v>5581</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1362</v>
+        <v>1732</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>5622</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,15 +1624,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>542</v>
+        <v>695</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>495</v>
+        <v>608</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>1037</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,15 +1641,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>1180</v>
+        <v>1379</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>1253</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,15 +1658,15 @@
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>1369</v>
+        <v>1810</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>1131</v>
+        <v>1467</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>2500</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,15 +1675,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>4774</v>
+        <v>6209</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>1606</v>
+        <v>1990</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>6380</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,15 +1692,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>9236</v>
+        <v>9491</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>9746</v>
+        <v>10032</v>
       </c>
     </row>
   </sheetData>
@@ -1748,15 +1748,15 @@
       </c>
       <c r="B2" s="2">
         <f>MayRaw!B2</f>
-        <v>0</v>
+        <v>4595</v>
       </c>
       <c r="C2" s="2">
         <f>MayRaw!C2</f>
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="D2" s="2">
         <f>MayRaw!D2</f>
-        <v>0</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,15 +1765,15 @@
       </c>
       <c r="B3" s="3">
         <f>MayRaw!B3</f>
-        <v>0</v>
+        <v>3015</v>
       </c>
       <c r="C3" s="3">
         <f>MayRaw!C3</f>
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="D3" s="3">
         <f>MayRaw!D3</f>
-        <v>0</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,15 +1782,15 @@
       </c>
       <c r="B4" s="2">
         <f>MayRaw!B4</f>
-        <v>0</v>
+        <v>8319</v>
       </c>
       <c r="C4" s="2">
         <f>MayRaw!C4</f>
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="D4" s="2">
         <f>MayRaw!D4</f>
-        <v>0</v>
+        <v>9486</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,15 +1799,15 @@
       </c>
       <c r="B5" s="3">
         <f>MayRaw!B5</f>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3">
         <f>MayRaw!C5</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3">
         <f>MayRaw!D5</f>
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1816,15 +1816,15 @@
       </c>
       <c r="B6" s="2">
         <f>MayRaw!B6</f>
-        <v>0</v>
+        <v>5316</v>
       </c>
       <c r="C6" s="2">
         <f>MayRaw!C6</f>
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="D6" s="2">
         <f>MayRaw!D6</f>
-        <v>0</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,15 +1833,15 @@
       </c>
       <c r="B7" s="3">
         <f>MayRaw!B7</f>
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="C7" s="3">
         <f>MayRaw!C7</f>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="D7" s="3">
         <f>MayRaw!D7</f>
-        <v>0</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1850,15 +1850,15 @@
       </c>
       <c r="B8" s="2">
         <f>MayRaw!B8</f>
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="C8" s="2">
         <f>MayRaw!C8</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2">
         <f>MayRaw!D8</f>
-        <v>0</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,15 +1867,15 @@
       </c>
       <c r="B9" s="3">
         <f>MayRaw!B9</f>
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="C9" s="3">
         <f>MayRaw!C9</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3">
         <f>MayRaw!D9</f>
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B10" s="2">
         <f>MayRaw!B10</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2">
         <f>MayRaw!C10</f>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="D10" s="2">
         <f>MayRaw!D10</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,15 +1918,15 @@
       </c>
       <c r="B12" s="4">
         <f>MayRaw!B12</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C12" s="4">
         <f>MayRaw!C12</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4">
         <f>MayRaw!D12</f>
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,15 +1935,15 @@
       </c>
       <c r="B13" s="5">
         <f>MayRaw!B13</f>
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="C13" s="5">
         <f>MayRaw!C13</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D13" s="5">
         <f>MayRaw!D13</f>
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,15 +1952,15 @@
       </c>
       <c r="B14" s="4">
         <f>MayRaw!B14</f>
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="C14" s="4">
         <f>MayRaw!C14</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D14" s="4">
         <f>MayRaw!D14</f>
-        <v>0</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1969,15 +1969,15 @@
       </c>
       <c r="B15" s="5">
         <f>MayRaw!B15</f>
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="C15" s="5">
         <f>MayRaw!C15</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5">
         <f>MayRaw!D15</f>
-        <v>0</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,15 +1986,15 @@
       </c>
       <c r="B16" s="2">
         <f>MayRaw!B16</f>
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="C16" s="2">
         <f>MayRaw!C16</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2">
         <f>MayRaw!D16</f>
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2003,15 +2003,15 @@
       </c>
       <c r="B17" s="3">
         <f>MayRaw!B17</f>
-        <v>0</v>
+        <v>2236</v>
       </c>
       <c r="C17" s="3">
         <f>MayRaw!C17</f>
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="D17" s="3">
         <f>MayRaw!D17</f>
-        <v>0</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2020,15 +2020,15 @@
       </c>
       <c r="B18" s="2">
         <f>MayRaw!B18</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2">
         <f>MayRaw!C18</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2">
         <f>MayRaw!D18</f>
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2037,15 +2037,15 @@
       </c>
       <c r="B19" s="3">
         <f>MayRaw!B19</f>
-        <v>0</v>
+        <v>2054</v>
       </c>
       <c r="C19" s="3">
         <f>MayRaw!C19</f>
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="D19" s="3">
         <f>MayRaw!D19</f>
-        <v>0</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,15 +2054,15 @@
       </c>
       <c r="B20" s="2">
         <f>MayRaw!B20</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <f>MayRaw!C20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
         <f>MayRaw!D20</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="B21" s="3">
         <f>MayRaw!B21</f>
-        <v>0</v>
+        <v>1988</v>
       </c>
       <c r="C21" s="3">
         <f>MayRaw!C21</f>
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="D21" s="3">
         <f>MayRaw!D21</f>
-        <v>0</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2088,15 +2088,15 @@
       </c>
       <c r="B22" s="2">
         <f>MayRaw!B22</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2">
         <f>MayRaw!C22</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <f>MayRaw!D22</f>
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,15 +2105,15 @@
       </c>
       <c r="B23" s="3">
         <f>MayRaw!B23</f>
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="C23" s="3">
         <f>MayRaw!C23</f>
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="D23" s="3">
         <f>MayRaw!D23</f>
-        <v>0</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,15 +2122,15 @@
       </c>
       <c r="B24" s="2">
         <f>MayRaw!B24</f>
-        <v>0</v>
+        <v>8396</v>
       </c>
       <c r="C24" s="2">
         <f>MayRaw!C24</f>
-        <v>0</v>
+        <v>1491</v>
       </c>
       <c r="D24" s="2">
         <f>MayRaw!D24</f>
-        <v>0</v>
+        <v>9887</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,15 +2139,15 @@
       </c>
       <c r="B25" s="3">
         <f>MayRaw!B25</f>
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="C25" s="3">
         <f>MayRaw!C25</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D25" s="3">
         <f>MayRaw!D25</f>
-        <v>0</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,15 +2173,15 @@
       </c>
       <c r="B27" s="3">
         <f>MayRaw!B27</f>
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="C27" s="3">
         <f>MayRaw!C27</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="D27" s="3">
         <f>MayRaw!D27</f>
-        <v>0</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,15 +2190,15 @@
       </c>
       <c r="B28" s="2">
         <f>MayRaw!B28</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2">
         <f>MayRaw!C28</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2">
         <f>MayRaw!D28</f>
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,15 +2207,15 @@
       </c>
       <c r="B29" s="3">
         <f>MayRaw!B29</f>
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="C29" s="3">
         <f>MayRaw!C29</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="D29" s="3">
         <f>MayRaw!D29</f>
-        <v>0</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2224,15 +2224,15 @@
       </c>
       <c r="B30" s="2">
         <f>MayRaw!B30</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
         <f>MayRaw!C30</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2">
         <f>MayRaw!D30</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,15 +2241,15 @@
       </c>
       <c r="B31" s="3">
         <f>MayRaw!B31</f>
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="C31" s="3">
         <f>MayRaw!C31</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
         <f>MayRaw!D31</f>
-        <v>0</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2258,15 +2258,15 @@
       </c>
       <c r="B32" s="2">
         <f>MayRaw!B32</f>
-        <v>0</v>
+        <v>1655</v>
       </c>
       <c r="C32" s="2">
         <f>MayRaw!C32</f>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="D32" s="2">
         <f>MayRaw!D32</f>
-        <v>0</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,15 +2275,15 @@
       </c>
       <c r="B33" s="3">
         <f>MayRaw!B33</f>
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="C33" s="3">
         <f>MayRaw!C33</f>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="D33" s="3">
         <f>MayRaw!D33</f>
-        <v>0</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,15 +2292,15 @@
       </c>
       <c r="B34" s="2">
         <f>MayRaw!B34</f>
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="C34" s="2">
         <f>MayRaw!C34</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D34" s="2">
         <f>MayRaw!D34</f>
-        <v>0</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,15 +2309,15 @@
       </c>
       <c r="B35" s="3">
         <f>MayRaw!B35</f>
-        <v>0</v>
+        <v>7375</v>
       </c>
       <c r="C35" s="3">
         <f>MayRaw!C35</f>
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="D35" s="3">
         <f>MayRaw!D35</f>
-        <v>0</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,15 +2326,15 @@
       </c>
       <c r="B36" s="2">
         <f>MayRaw!B36</f>
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="C36" s="2">
         <f>MayRaw!C36</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D36" s="2">
         <f>MayRaw!D36</f>
-        <v>0</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2343,15 +2343,15 @@
       </c>
       <c r="B37" s="3">
         <f>MayRaw!B37</f>
-        <v>0</v>
+        <v>3479</v>
       </c>
       <c r="C37" s="3">
         <f>MayRaw!C37</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="D37" s="3">
         <f>MayRaw!D37</f>
-        <v>0</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2360,15 +2360,15 @@
       </c>
       <c r="B38" s="2">
         <f>MayRaw!B38</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2">
         <f>MayRaw!C38</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <f>MayRaw!D38</f>
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,15 +2377,15 @@
       </c>
       <c r="B39" s="3">
         <f>MayRaw!B39</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3">
         <f>MayRaw!C39</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D39" s="3">
         <f>MayRaw!D39</f>
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B40" s="6">
         <f>MayRaw!B40</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C40" s="6">
         <f>MayRaw!C40</f>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="D40" s="6">
         <f>MayRaw!D40</f>
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2411,15 +2411,15 @@
       </c>
       <c r="B41" s="7">
         <f>MayRaw!B41</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C41" s="7">
         <f>MayRaw!C41</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D41" s="7">
         <f>MayRaw!D41</f>
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,15 +2428,15 @@
       </c>
       <c r="B42" s="6">
         <f>MayRaw!B42</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C42" s="6">
         <f>MayRaw!C42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="6">
         <f>MayRaw!D42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,15 +2479,15 @@
       </c>
       <c r="B45" s="3">
         <f>MayRaw!B45</f>
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="C45" s="3">
         <f>MayRaw!C45</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3">
         <f>MayRaw!D45</f>
-        <v>0</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2496,15 +2496,15 @@
       </c>
       <c r="B46" s="2">
         <f>MayRaw!B46</f>
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="C46" s="2">
         <f>MayRaw!C46</f>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="D46" s="2">
         <f>MayRaw!D46</f>
-        <v>0</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,15 +2513,15 @@
       </c>
       <c r="B47" s="3">
         <f>MayRaw!B47</f>
-        <v>0</v>
+        <v>4858</v>
       </c>
       <c r="C47" s="3">
         <f>MayRaw!C47</f>
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="D47" s="3">
         <f>MayRaw!D47</f>
-        <v>0</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,15 +2530,15 @@
       </c>
       <c r="B48" s="2">
         <f>MayRaw!B48</f>
-        <v>0</v>
+        <v>2390</v>
       </c>
       <c r="C48" s="2">
         <f>MayRaw!C48</f>
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D48" s="2">
         <f>MayRaw!D48</f>
-        <v>0</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,15 +2547,15 @@
       </c>
       <c r="B49" s="3">
         <f>MayRaw!B49</f>
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="C49" s="3">
         <f>MayRaw!C49</f>
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="D49" s="3">
         <f>MayRaw!D49</f>
-        <v>0</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,15 +2564,15 @@
       </c>
       <c r="B50" s="2">
         <f>MayRaw!B50</f>
-        <v>0</v>
+        <v>4171</v>
       </c>
       <c r="C50" s="2">
         <f>MayRaw!C50</f>
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="D50" s="2">
         <f>MayRaw!D50</f>
-        <v>0</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2581,15 +2581,15 @@
       </c>
       <c r="B51" s="3">
         <f>MayRaw!B51</f>
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="C51" s="3">
         <f>MayRaw!C51</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D51" s="3">
         <f>MayRaw!D51</f>
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2598,15 +2598,15 @@
       </c>
       <c r="B52" s="2">
         <f>MayRaw!B52</f>
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="C52" s="2">
         <f>MayRaw!C52</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="D52" s="2">
         <f>MayRaw!D52</f>
-        <v>0</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,15 +2615,15 @@
       </c>
       <c r="B53" s="3">
         <f>MayRaw!B53</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C53" s="3">
         <f>MayRaw!C53</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D53" s="3">
         <f>MayRaw!D53</f>
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2632,15 +2632,15 @@
       </c>
       <c r="B54" s="2">
         <f>MayRaw!B54</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C54" s="2">
         <f>MayRaw!C54</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2">
         <f>MayRaw!D54</f>
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,15 +2649,15 @@
       </c>
       <c r="B55" s="3">
         <f>MayRaw!B55</f>
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="C55" s="3">
         <f>MayRaw!C55</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D55" s="3">
         <f>MayRaw!D55</f>
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,15 +2666,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1435</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2683,15 +2683,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2703,12 +2703,741 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284CB9D0-7A01-4B30-8E43-182276E1F8BB}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4595</v>
+      </c>
+      <c r="C2">
+        <v>1339</v>
+      </c>
+      <c r="D2">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3015</v>
+      </c>
+      <c r="C3">
+        <v>544</v>
+      </c>
+      <c r="D3">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8319</v>
+      </c>
+      <c r="C4">
+        <v>1167</v>
+      </c>
+      <c r="D4">
+        <v>9486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>161</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5316</v>
+      </c>
+      <c r="C6">
+        <v>1044</v>
+      </c>
+      <c r="D6">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>448</v>
+      </c>
+      <c r="C7">
+        <v>331</v>
+      </c>
+      <c r="D7">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>724</v>
+      </c>
+      <c r="C8">
+        <v>134</v>
+      </c>
+      <c r="D8">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>422</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>157</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>277</v>
+      </c>
+      <c r="C13">
+        <v>137</v>
+      </c>
+      <c r="D13">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>529</v>
+      </c>
+      <c r="C14">
+        <v>163</v>
+      </c>
+      <c r="D14">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>472</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>385</v>
+      </c>
+      <c r="C16">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2236</v>
+      </c>
+      <c r="C17">
+        <v>608</v>
+      </c>
+      <c r="D17">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>140</v>
+      </c>
+      <c r="C18">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2054</v>
+      </c>
+      <c r="C19">
+        <v>517</v>
+      </c>
+      <c r="D19">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1988</v>
+      </c>
+      <c r="C21">
+        <v>417</v>
+      </c>
+      <c r="D21">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1877</v>
+      </c>
+      <c r="C23">
+        <v>590</v>
+      </c>
+      <c r="D23">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8396</v>
+      </c>
+      <c r="C24">
+        <v>1491</v>
+      </c>
+      <c r="D24">
+        <v>9887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>679</v>
+      </c>
+      <c r="C25">
+        <v>128</v>
+      </c>
+      <c r="D25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>482</v>
+      </c>
+      <c r="C27">
+        <v>254</v>
+      </c>
+      <c r="D27">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>210</v>
+      </c>
+      <c r="C28">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1585</v>
+      </c>
+      <c r="C29">
+        <v>462</v>
+      </c>
+      <c r="D29">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>433</v>
+      </c>
+      <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1655</v>
+      </c>
+      <c r="C32">
+        <v>425</v>
+      </c>
+      <c r="D32">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1258</v>
+      </c>
+      <c r="C33">
+        <v>347</v>
+      </c>
+      <c r="D33">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>449</v>
+      </c>
+      <c r="C34">
+        <v>163</v>
+      </c>
+      <c r="D34">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7375</v>
+      </c>
+      <c r="C35">
+        <v>748</v>
+      </c>
+      <c r="D35">
+        <v>8123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>923</v>
+      </c>
+      <c r="C36">
+        <v>156</v>
+      </c>
+      <c r="D36">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3479</v>
+      </c>
+      <c r="C37">
+        <v>460</v>
+      </c>
+      <c r="D37">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>105</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>94</v>
+      </c>
+      <c r="C39">
+        <v>130</v>
+      </c>
+      <c r="D39">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>104</v>
+      </c>
+      <c r="D40">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>145</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>365</v>
+      </c>
+      <c r="C45">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1280</v>
+      </c>
+      <c r="C46">
+        <v>485</v>
+      </c>
+      <c r="D46">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4858</v>
+      </c>
+      <c r="C47">
+        <v>872</v>
+      </c>
+      <c r="D47">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2390</v>
+      </c>
+      <c r="C48">
+        <v>223</v>
+      </c>
+      <c r="D48">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1151</v>
+      </c>
+      <c r="C49">
+        <v>448</v>
+      </c>
+      <c r="D49">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4171</v>
+      </c>
+      <c r="C50">
+        <v>881</v>
+      </c>
+      <c r="D50">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>484</v>
+      </c>
+      <c r="C51">
+        <v>160</v>
+      </c>
+      <c r="D51">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1321</v>
+      </c>
+      <c r="C52">
+        <v>370</v>
+      </c>
+      <c r="D52">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>153</v>
+      </c>
+      <c r="C53">
+        <v>113</v>
+      </c>
+      <c r="D53">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>199</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>441</v>
+      </c>
+      <c r="C55">
+        <v>336</v>
+      </c>
+      <c r="D55">
+        <v>777</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15040,7 +15769,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/statistics_files/2024/2024_99_g_sharing.xlsx
+++ b/statistics_files/2024/2024_99_g_sharing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B85FF-FB05-4805-B399-7604B404E9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A4B1BE-44ED-4AAC-B083-8713FCE78D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -757,15 +766,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>20925</v>
+        <v>26320</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>6773</v>
+        <v>8140</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>27698</v>
+        <v>34460</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,15 +783,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>13519</v>
+        <v>17206</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>2848</v>
+        <v>3496</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>16367</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,15 +800,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>39783</v>
+        <v>49722</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>6005</v>
+        <v>7125</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>45788</v>
+        <v>56847</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,15 +817,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>615</v>
+        <v>905</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>812</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,15 +834,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>25497</v>
+        <v>31946</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>5389</v>
+        <v>6397</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>30886</v>
+        <v>38343</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,15 +851,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2207</v>
+        <v>2718</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>1611</v>
+        <v>1870</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>3818</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,15 +868,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>2921</v>
+        <v>3747</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>585</v>
+        <v>762</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>3506</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,15 +885,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>1430</v>
+        <v>2108</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>1680</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,15 +902,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>393</v>
+        <v>692</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>395</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,15 +936,15 @@
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>660</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,15 +953,15 @@
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1159</v>
+        <v>1426</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>826</v>
+        <v>967</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>1985</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,15 +970,15 @@
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>2505</v>
+        <v>2999</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>714</v>
+        <v>811</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>3219</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,15 +987,15 @@
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>2054</v>
+        <v>2605</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>2335</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,15 +1004,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>1459</v>
+        <v>1870</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>1803</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,15 +1021,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>8616</v>
+        <v>10549</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>2932</v>
+        <v>3505</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>11548</v>
+        <v>14054</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,15 +1038,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>464</v>
+        <v>644</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>836</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,15 +1055,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>8691</v>
+        <v>10863</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>2827</v>
+        <v>3309</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>11518</v>
+        <v>14172</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,15 +1072,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,15 +1089,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>8476</v>
+        <v>10903</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>2128</v>
+        <v>2768</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>10604</v>
+        <v>13671</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,15 +1106,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>545</v>
+        <v>715</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>665</v>
+        <v>858</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,15 +1123,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>8957</v>
+        <v>11309</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>3160</v>
+        <v>3828</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>12117</v>
+        <v>15137</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,15 +1140,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>42870</v>
+        <v>51730</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>8952</v>
+        <v>10290</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>51822</v>
+        <v>62020</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,15 +1157,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>3170</v>
+        <v>4122</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>727</v>
+        <v>909</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>3897</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,15 +1191,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2001</v>
+        <v>2580</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>1197</v>
+        <v>1474</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>3198</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,15 +1208,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>827</v>
+        <v>1126</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>1216</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,15 +1225,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>6303</v>
+        <v>7993</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>2811</v>
+        <v>3205</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>9114</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1233,15 +1242,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>341</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,15 +1259,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>1621</v>
+        <v>2215</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>1931</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,15 +1276,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>6694</v>
+        <v>8507</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>2155</v>
+        <v>2563</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>8849</v>
+        <v>11070</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,15 +1293,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>4849</v>
+        <v>6649</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>1555</v>
+        <v>1940</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>6404</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,15 +1310,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>2353</v>
+        <v>3042</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>786</v>
+        <v>972</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>3139</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,15 +1327,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>32396</v>
+        <v>41368</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>4063</v>
+        <v>4825</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>36459</v>
+        <v>46193</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,15 +1344,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>4135</v>
+        <v>5374</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>965</v>
+        <v>1188</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>5100</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,15 +1361,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>15106</v>
+        <v>18789</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>2265</v>
+        <v>2759</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>17371</v>
+        <v>21548</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,15 +1378,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>345</v>
+        <v>625</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>487</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,15 +1395,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>365</v>
+        <v>536</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>798</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,15 +1497,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>1656</v>
+        <v>2227</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>346</v>
+        <v>437</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>2002</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,15 +1514,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>6285</v>
+        <v>7740</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>2529</v>
+        <v>2974</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>8814</v>
+        <v>10714</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,15 +1531,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>16601</v>
+        <v>21657</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>5285</v>
+        <v>6319</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>21886</v>
+        <v>27976</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,15 +1548,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>8344</v>
+        <v>11087</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>1322</v>
+        <v>1537</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>9666</v>
+        <v>12624</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,15 +1565,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>4925</v>
+        <v>6158</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>2613</v>
+        <v>3117</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>7538</v>
+        <v>9275</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,15 +1582,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>16852</v>
+        <v>21523</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>4616</v>
+        <v>5585</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>21468</v>
+        <v>27108</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,15 +1599,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1979</v>
+        <v>2603</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1036</v>
+        <v>1239</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>3015</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1607,15 +1616,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>5581</v>
+        <v>7061</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>1732</v>
+        <v>2052</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>7313</v>
+        <v>9113</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,15 +1633,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>695</v>
+        <v>1050</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>608</v>
+        <v>711</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>1303</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,15 +1650,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>1379</v>
+        <v>1726</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>1469</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,15 +1667,15 @@
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>1810</v>
+        <v>2211</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>1467</v>
+        <v>1830</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>3277</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,15 +1684,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>6209</v>
+        <v>7622</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>1990</v>
+        <v>2346</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>8199</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3480,15 +3489,15 @@
       </c>
       <c r="B2" s="2">
         <f>JuneRaw!B2</f>
-        <v>0</v>
+        <v>5395</v>
       </c>
       <c r="C2" s="2">
         <f>JuneRaw!C2</f>
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="D2" s="2">
         <f>JuneRaw!D2</f>
-        <v>0</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,15 +3506,15 @@
       </c>
       <c r="B3" s="3">
         <f>JuneRaw!B3</f>
-        <v>0</v>
+        <v>3687</v>
       </c>
       <c r="C3" s="3">
         <f>JuneRaw!C3</f>
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="D3" s="3">
         <f>JuneRaw!D3</f>
-        <v>0</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3514,15 +3523,15 @@
       </c>
       <c r="B4" s="2">
         <f>JuneRaw!B4</f>
-        <v>0</v>
+        <v>9939</v>
       </c>
       <c r="C4" s="2">
         <f>JuneRaw!C4</f>
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="D4" s="2">
         <f>JuneRaw!D4</f>
-        <v>0</v>
+        <v>11059</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,15 +3540,15 @@
       </c>
       <c r="B5" s="3">
         <f>JuneRaw!B5</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="C5" s="3">
         <f>JuneRaw!C5</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3">
         <f>JuneRaw!D5</f>
-        <v>0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3548,15 +3557,15 @@
       </c>
       <c r="B6" s="2">
         <f>JuneRaw!B6</f>
-        <v>0</v>
+        <v>6449</v>
       </c>
       <c r="C6" s="2">
         <f>JuneRaw!C6</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="D6" s="2">
         <f>JuneRaw!D6</f>
-        <v>0</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,15 +3574,15 @@
       </c>
       <c r="B7" s="3">
         <f>JuneRaw!B7</f>
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="C7" s="3">
         <f>JuneRaw!C7</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="D7" s="3">
         <f>JuneRaw!D7</f>
-        <v>0</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3582,15 +3591,15 @@
       </c>
       <c r="B8" s="2">
         <f>JuneRaw!B8</f>
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="C8" s="2">
         <f>JuneRaw!C8</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2">
         <f>JuneRaw!D8</f>
-        <v>0</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3599,15 +3608,15 @@
       </c>
       <c r="B9" s="3">
         <f>JuneRaw!B9</f>
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="C9" s="3">
         <f>JuneRaw!C9</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3">
         <f>JuneRaw!D9</f>
-        <v>0</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3616,15 +3625,15 @@
       </c>
       <c r="B10" s="2">
         <f>JuneRaw!B10</f>
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="C10" s="2">
         <f>JuneRaw!C10</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
         <f>JuneRaw!D10</f>
-        <v>0</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3650,15 +3659,15 @@
       </c>
       <c r="B12" s="4">
         <f>JuneRaw!B12</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C12" s="4">
         <f>JuneRaw!C12</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4">
         <f>JuneRaw!D12</f>
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,15 +3676,15 @@
       </c>
       <c r="B13" s="5">
         <f>JuneRaw!B13</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C13" s="5">
         <f>JuneRaw!C13</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D13" s="5">
         <f>JuneRaw!D13</f>
-        <v>0</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,15 +3693,15 @@
       </c>
       <c r="B14" s="4">
         <f>JuneRaw!B14</f>
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="C14" s="4">
         <f>JuneRaw!C14</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4">
         <f>JuneRaw!D14</f>
-        <v>0</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,15 +3710,15 @@
       </c>
       <c r="B15" s="5">
         <f>JuneRaw!B15</f>
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="C15" s="5">
         <f>JuneRaw!C15</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D15" s="5">
         <f>JuneRaw!D15</f>
-        <v>0</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,15 +3727,15 @@
       </c>
       <c r="B16" s="2">
         <f>JuneRaw!B16</f>
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C16" s="2">
         <f>JuneRaw!C16</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2">
         <f>JuneRaw!D16</f>
-        <v>0</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3735,15 +3744,15 @@
       </c>
       <c r="B17" s="3">
         <f>JuneRaw!B17</f>
-        <v>0</v>
+        <v>1933</v>
       </c>
       <c r="C17" s="3">
         <f>JuneRaw!C17</f>
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="D17" s="3">
         <f>JuneRaw!D17</f>
-        <v>0</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,15 +3761,15 @@
       </c>
       <c r="B18" s="2">
         <f>JuneRaw!B18</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2">
         <f>JuneRaw!C18</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2">
         <f>JuneRaw!D18</f>
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,15 +3778,15 @@
       </c>
       <c r="B19" s="3">
         <f>JuneRaw!B19</f>
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="C19" s="3">
         <f>JuneRaw!C19</f>
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="D19" s="3">
         <f>JuneRaw!D19</f>
-        <v>0</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,15 +3795,15 @@
       </c>
       <c r="B20" s="2">
         <f>JuneRaw!B20</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <f>JuneRaw!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <f>JuneRaw!D20</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3803,15 +3812,15 @@
       </c>
       <c r="B21" s="3">
         <f>JuneRaw!B21</f>
-        <v>0</v>
+        <v>2427</v>
       </c>
       <c r="C21" s="3">
         <f>JuneRaw!C21</f>
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="D21" s="3">
         <f>JuneRaw!D21</f>
-        <v>0</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3820,15 +3829,15 @@
       </c>
       <c r="B22" s="2">
         <f>JuneRaw!B22</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C22" s="2">
         <f>JuneRaw!C22</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
         <f>JuneRaw!D22</f>
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3837,15 +3846,15 @@
       </c>
       <c r="B23" s="3">
         <f>JuneRaw!B23</f>
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="C23" s="3">
         <f>JuneRaw!C23</f>
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="D23" s="3">
         <f>JuneRaw!D23</f>
-        <v>0</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3854,15 +3863,15 @@
       </c>
       <c r="B24" s="2">
         <f>JuneRaw!B24</f>
-        <v>0</v>
+        <v>8860</v>
       </c>
       <c r="C24" s="2">
         <f>JuneRaw!C24</f>
-        <v>0</v>
+        <v>1338</v>
       </c>
       <c r="D24" s="2">
         <f>JuneRaw!D24</f>
-        <v>0</v>
+        <v>10198</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,15 +3880,15 @@
       </c>
       <c r="B25" s="3">
         <f>JuneRaw!B25</f>
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="C25" s="3">
         <f>JuneRaw!C25</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D25" s="3">
         <f>JuneRaw!D25</f>
-        <v>0</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3905,15 +3914,15 @@
       </c>
       <c r="B27" s="3">
         <f>JuneRaw!B27</f>
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="C27" s="3">
         <f>JuneRaw!C27</f>
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="D27" s="3">
         <f>JuneRaw!D27</f>
-        <v>0</v>
+        <v>856</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3922,15 +3931,15 @@
       </c>
       <c r="B28" s="2">
         <f>JuneRaw!B28</f>
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2">
         <f>JuneRaw!C28</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2">
         <f>JuneRaw!D28</f>
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3939,15 +3948,15 @@
       </c>
       <c r="B29" s="3">
         <f>JuneRaw!B29</f>
-        <v>0</v>
+        <v>1690</v>
       </c>
       <c r="C29" s="3">
         <f>JuneRaw!C29</f>
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="D29" s="3">
         <f>JuneRaw!D29</f>
-        <v>0</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3956,15 +3965,15 @@
       </c>
       <c r="B30" s="2">
         <f>JuneRaw!B30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
         <f>JuneRaw!C30</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2">
         <f>JuneRaw!D30</f>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,15 +3982,15 @@
       </c>
       <c r="B31" s="3">
         <f>JuneRaw!B31</f>
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="C31" s="3">
         <f>JuneRaw!C31</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D31" s="3">
         <f>JuneRaw!D31</f>
-        <v>0</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3990,15 +3999,15 @@
       </c>
       <c r="B32" s="2">
         <f>JuneRaw!B32</f>
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="C32" s="2">
         <f>JuneRaw!C32</f>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="D32" s="2">
         <f>JuneRaw!D32</f>
-        <v>0</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4007,15 +4016,15 @@
       </c>
       <c r="B33" s="3">
         <f>JuneRaw!B33</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C33" s="3">
         <f>JuneRaw!C33</f>
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="D33" s="3">
         <f>JuneRaw!D33</f>
-        <v>0</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4024,15 +4033,15 @@
       </c>
       <c r="B34" s="2">
         <f>JuneRaw!B34</f>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="C34" s="2">
         <f>JuneRaw!C34</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D34" s="2">
         <f>JuneRaw!D34</f>
-        <v>0</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,15 +4050,15 @@
       </c>
       <c r="B35" s="3">
         <f>JuneRaw!B35</f>
-        <v>0</v>
+        <v>8972</v>
       </c>
       <c r="C35" s="3">
         <f>JuneRaw!C35</f>
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="D35" s="3">
         <f>JuneRaw!D35</f>
-        <v>0</v>
+        <v>9734</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4058,15 +4067,15 @@
       </c>
       <c r="B36" s="2">
         <f>JuneRaw!B36</f>
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="C36" s="2">
         <f>JuneRaw!C36</f>
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D36" s="2">
         <f>JuneRaw!D36</f>
-        <v>0</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4075,15 +4084,15 @@
       </c>
       <c r="B37" s="3">
         <f>JuneRaw!B37</f>
-        <v>0</v>
+        <v>3683</v>
       </c>
       <c r="C37" s="3">
         <f>JuneRaw!C37</f>
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="D37" s="3">
         <f>JuneRaw!D37</f>
-        <v>0</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4092,15 +4101,15 @@
       </c>
       <c r="B38" s="2">
         <f>JuneRaw!B38</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2">
         <f>JuneRaw!C38</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <f>JuneRaw!D38</f>
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4109,15 +4118,15 @@
       </c>
       <c r="B39" s="3">
         <f>JuneRaw!B39</f>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="C39" s="3">
         <f>JuneRaw!C39</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D39" s="3">
         <f>JuneRaw!D39</f>
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,15 +4220,15 @@
       </c>
       <c r="B45" s="3">
         <f>JuneRaw!B45</f>
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="C45" s="3">
         <f>JuneRaw!C45</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D45" s="3">
         <f>JuneRaw!D45</f>
-        <v>0</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,15 +4237,15 @@
       </c>
       <c r="B46" s="2">
         <f>JuneRaw!B46</f>
-        <v>0</v>
+        <v>1455</v>
       </c>
       <c r="C46" s="2">
         <f>JuneRaw!C46</f>
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="D46" s="2">
         <f>JuneRaw!D46</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4245,15 +4254,15 @@
       </c>
       <c r="B47" s="3">
         <f>JuneRaw!B47</f>
-        <v>0</v>
+        <v>5056</v>
       </c>
       <c r="C47" s="3">
         <f>JuneRaw!C47</f>
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="D47" s="3">
         <f>JuneRaw!D47</f>
-        <v>0</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4262,15 +4271,15 @@
       </c>
       <c r="B48" s="2">
         <f>JuneRaw!B48</f>
-        <v>0</v>
+        <v>2743</v>
       </c>
       <c r="C48" s="2">
         <f>JuneRaw!C48</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D48" s="2">
         <f>JuneRaw!D48</f>
-        <v>0</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4279,15 +4288,15 @@
       </c>
       <c r="B49" s="3">
         <f>JuneRaw!B49</f>
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="C49" s="3">
         <f>JuneRaw!C49</f>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="D49" s="3">
         <f>JuneRaw!D49</f>
-        <v>0</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,15 +4305,15 @@
       </c>
       <c r="B50" s="2">
         <f>JuneRaw!B50</f>
-        <v>0</v>
+        <v>4671</v>
       </c>
       <c r="C50" s="2">
         <f>JuneRaw!C50</f>
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="D50" s="2">
         <f>JuneRaw!D50</f>
-        <v>0</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,15 +4322,15 @@
       </c>
       <c r="B51" s="3">
         <f>JuneRaw!B51</f>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="C51" s="3">
         <f>JuneRaw!C51</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D51" s="3">
         <f>JuneRaw!D51</f>
-        <v>0</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,15 +4339,15 @@
       </c>
       <c r="B52" s="2">
         <f>JuneRaw!B52</f>
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="C52" s="2">
         <f>JuneRaw!C52</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D52" s="2">
         <f>JuneRaw!D52</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4347,15 +4356,15 @@
       </c>
       <c r="B53" s="3">
         <f>JuneRaw!B53</f>
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="C53" s="3">
         <f>JuneRaw!C53</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D53" s="3">
         <f>JuneRaw!D53</f>
-        <v>0</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4364,15 +4373,15 @@
       </c>
       <c r="B54" s="2">
         <f>JuneRaw!B54</f>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2">
         <f>JuneRaw!C54</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <f>JuneRaw!D54</f>
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4381,15 +4390,15 @@
       </c>
       <c r="B55" s="3">
         <f>JuneRaw!B55</f>
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="C55" s="3">
         <f>JuneRaw!C55</f>
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="D55" s="3">
         <f>JuneRaw!D55</f>
-        <v>0</v>
+        <v>764</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,15 +4407,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1413</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4435,12 +4444,720 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCCA3B6-BCDB-4F08-B4A5-E8BE75D95F50}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5395</v>
+      </c>
+      <c r="C2">
+        <v>1367</v>
+      </c>
+      <c r="D2">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3687</v>
+      </c>
+      <c r="C3">
+        <v>648</v>
+      </c>
+      <c r="D3">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9939</v>
+      </c>
+      <c r="C4">
+        <v>1120</v>
+      </c>
+      <c r="D4">
+        <v>11059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>290</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6449</v>
+      </c>
+      <c r="C6">
+        <v>1008</v>
+      </c>
+      <c r="D6">
+        <v>7457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>511</v>
+      </c>
+      <c r="C7">
+        <v>259</v>
+      </c>
+      <c r="D7">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>826</v>
+      </c>
+      <c r="C8">
+        <v>177</v>
+      </c>
+      <c r="D8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>678</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>267</v>
+      </c>
+      <c r="C13">
+        <v>141</v>
+      </c>
+      <c r="D13">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>494</v>
+      </c>
+      <c r="C14">
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>551</v>
+      </c>
+      <c r="C15">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>411</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1933</v>
+      </c>
+      <c r="C17">
+        <v>573</v>
+      </c>
+      <c r="D17">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>180</v>
+      </c>
+      <c r="C18">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2172</v>
+      </c>
+      <c r="C19">
+        <v>482</v>
+      </c>
+      <c r="D19">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2427</v>
+      </c>
+      <c r="C21">
+        <v>640</v>
+      </c>
+      <c r="D21">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>170</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2352</v>
+      </c>
+      <c r="C23">
+        <v>668</v>
+      </c>
+      <c r="D23">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8860</v>
+      </c>
+      <c r="C24">
+        <v>1338</v>
+      </c>
+      <c r="D24">
+        <v>10198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>952</v>
+      </c>
+      <c r="C25">
+        <v>182</v>
+      </c>
+      <c r="D25">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>579</v>
+      </c>
+      <c r="C27">
+        <v>277</v>
+      </c>
+      <c r="D27">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>299</v>
+      </c>
+      <c r="C28">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1690</v>
+      </c>
+      <c r="C29">
+        <v>394</v>
+      </c>
+      <c r="D29">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>594</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1813</v>
+      </c>
+      <c r="C32">
+        <v>408</v>
+      </c>
+      <c r="D32">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1800</v>
+      </c>
+      <c r="C33">
+        <v>385</v>
+      </c>
+      <c r="D33">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>689</v>
+      </c>
+      <c r="C34">
+        <v>186</v>
+      </c>
+      <c r="D34">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8972</v>
+      </c>
+      <c r="C35">
+        <v>762</v>
+      </c>
+      <c r="D35">
+        <v>9734</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1239</v>
+      </c>
+      <c r="C36">
+        <v>223</v>
+      </c>
+      <c r="D36">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3683</v>
+      </c>
+      <c r="C37">
+        <v>494</v>
+      </c>
+      <c r="D37">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>280</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>171</v>
+      </c>
+      <c r="C39">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>571</v>
+      </c>
+      <c r="C45">
+        <v>91</v>
+      </c>
+      <c r="D45">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1455</v>
+      </c>
+      <c r="C46">
+        <v>445</v>
+      </c>
+      <c r="D46">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5056</v>
+      </c>
+      <c r="C47">
+        <v>1034</v>
+      </c>
+      <c r="D47">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2743</v>
+      </c>
+      <c r="C48">
+        <v>215</v>
+      </c>
+      <c r="D48">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1233</v>
+      </c>
+      <c r="C49">
+        <v>504</v>
+      </c>
+      <c r="D49">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4671</v>
+      </c>
+      <c r="C50">
+        <v>969</v>
+      </c>
+      <c r="D50">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>624</v>
+      </c>
+      <c r="C51">
+        <v>203</v>
+      </c>
+      <c r="D51">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1480</v>
+      </c>
+      <c r="C52">
+        <v>320</v>
+      </c>
+      <c r="D52">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>355</v>
+      </c>
+      <c r="C53">
+        <v>103</v>
+      </c>
+      <c r="D53">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>347</v>
+      </c>
+      <c r="C54">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>401</v>
+      </c>
+      <c r="C55">
+        <v>363</v>
+      </c>
+      <c r="D55">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2024/2024_99_g_sharing.xlsx
+++ b/statistics_files/2024/2024_99_g_sharing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055343B-DEB3-42D4-800C-3376C1C5B0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3001C-60BB-485E-8EB5-79F85722927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,15 +766,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>41434</v>
+        <v>45870</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>12673</v>
+        <v>14389</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>54107</v>
+        <v>60259</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,15 +783,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>26863</v>
+        <v>29672</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>5634</v>
+        <v>6346</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>32497</v>
+        <v>36018</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -800,15 +800,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>75830</v>
+        <v>82929</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>10582</v>
+        <v>11795</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>86412</v>
+        <v>94724</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,15 +817,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>1241</v>
+        <v>1336</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1642</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,15 +834,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>48328</v>
+        <v>53027</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>9478</v>
+        <v>10736</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>57806</v>
+        <v>63763</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,15 +851,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>4228</v>
+        <v>4724</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>2597</v>
+        <v>2772</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>6825</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,15 +868,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>5603</v>
+        <v>6211</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1157</v>
+        <v>1338</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>6760</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,15 +885,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>3059</v>
+        <v>3265</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>3452</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>1335</v>
+        <v>1384</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -910,7 +910,7 @@
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>1354</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,15 +936,15 @@
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>820</v>
+        <v>908</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>1132</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,15 +953,15 @@
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>2004</v>
+        <v>2177</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>1319</v>
+        <v>1430</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>3323</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,15 +970,15 @@
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>4581</v>
+        <v>5016</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1204</v>
+        <v>1396</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>5785</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,15 +987,15 @@
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>3657</v>
+        <v>3916</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>558</v>
+        <v>613</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>4215</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,15 +1004,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>2819</v>
+        <v>3009</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>3388</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1021,15 +1021,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>16279</v>
+        <v>17662</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>5369</v>
+        <v>6070</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>21648</v>
+        <v>23732</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1038,15 +1038,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>966</v>
+        <v>1105</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>678</v>
+        <v>771</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>1644</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,15 +1055,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>16716</v>
+        <v>18370</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>4836</v>
+        <v>5451</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>21552</v>
+        <v>23821</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,15 +1072,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>369</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1089,15 +1089,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>16973</v>
+        <v>18629</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>4409</v>
+        <v>4966</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>21382</v>
+        <v>23595</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,15 +1106,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>1120</v>
+        <v>1287</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>1354</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,15 +1123,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>17916</v>
+        <v>19797</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>5907</v>
+        <v>6542</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>23823</v>
+        <v>26339</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,15 +1140,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>79191</v>
+        <v>87973</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>15035</v>
+        <v>16658</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>94226</v>
+        <v>104631</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,15 +1157,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>5970</v>
+        <v>6578</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1305</v>
+        <v>1474</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>7275</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,15 +1191,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>4116</v>
+        <v>4615</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>2161</v>
+        <v>2413</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>6277</v>
+        <v>7028</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,15 +1208,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>1946</v>
+        <v>2250</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>741</v>
+        <v>892</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>2687</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,15 +1225,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>12558</v>
+        <v>14094</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>4845</v>
+        <v>5546</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>17403</v>
+        <v>19640</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,15 +1242,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>545</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,15 +1259,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>3130</v>
+        <v>3402</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>3602</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,15 +1276,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>13057</v>
+        <v>14578</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>3851</v>
+        <v>4294</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>16908</v>
+        <v>18872</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,15 +1293,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>10755</v>
+        <v>11658</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>3200</v>
+        <v>3567</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>13955</v>
+        <v>15225</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,15 +1310,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>4531</v>
+        <v>5010</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1575</v>
+        <v>1760</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>6106</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,15 +1327,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>62083</v>
+        <v>67589</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>7599</v>
+        <v>8509</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>69682</v>
+        <v>76098</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,15 +1344,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>8063</v>
+        <v>8843</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1746</v>
+        <v>1932</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>9809</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,15 +1361,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>28709</v>
+        <v>31529</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>4273</v>
+        <v>4888</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>32982</v>
+        <v>36417</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,15 +1378,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>1107</v>
+        <v>1294</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>1358</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,15 +1395,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>859</v>
+        <v>986</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>698</v>
+        <v>796</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>1557</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>2725</v>
+        <v>3200</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>2920</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,15 +1429,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>10517</v>
+        <v>13337</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>10923</v>
+        <v>13802</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,15 +1446,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>305</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,15 +1463,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>854</v>
+        <v>1003</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>903</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,15 +1497,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>3316</v>
+        <v>3656</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>4045</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,15 +1514,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>12048</v>
+        <v>13461</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>4641</v>
+        <v>5267</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>16689</v>
+        <v>18728</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,15 +1531,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>31894</v>
+        <v>34856</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>9420</v>
+        <v>10574</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>41314</v>
+        <v>45430</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,15 +1548,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>16978</v>
+        <v>18487</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>2253</v>
+        <v>2495</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>19231</v>
+        <v>20982</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,15 +1565,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>9548</v>
+        <v>10725</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>5055</v>
+        <v>5676</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>14603</v>
+        <v>16401</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,15 +1582,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>31933</v>
+        <v>35059</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>8437</v>
+        <v>9244</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>40370</v>
+        <v>44303</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,15 +1599,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>4226</v>
+        <v>4762</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>1946</v>
+        <v>2214</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>6172</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,15 +1616,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>10403</v>
+        <v>11389</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>3167</v>
+        <v>3541</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>13570</v>
+        <v>14930</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1633,15 +1633,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1434</v>
+        <v>1570</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>1168</v>
+        <v>1371</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>2602</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,15 +1650,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>2405</v>
+        <v>2644</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>2638</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,15 +1667,15 @@
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>3372</v>
+        <v>3709</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>2861</v>
+        <v>3268</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>6233</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1684,15 +1684,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>11062</v>
+        <v>12017</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>3393</v>
+        <v>3768</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>14455</v>
+        <v>15785</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,15 +1701,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>14357</v>
+        <v>17840</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>694</v>
+        <v>816</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>15051</v>
+        <v>18656</v>
       </c>
     </row>
   </sheetData>
@@ -11419,7 +11419,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11448,15 +11448,15 @@
       </c>
       <c r="B2" s="2">
         <f>OctoberRaw!B2</f>
-        <v>0</v>
+        <v>4436</v>
       </c>
       <c r="C2" s="2">
         <f>OctoberRaw!C2</f>
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="D2" s="2">
         <f>OctoberRaw!D2</f>
-        <v>0</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11465,15 +11465,15 @@
       </c>
       <c r="B3" s="3">
         <f>OctoberRaw!B3</f>
-        <v>0</v>
+        <v>2809</v>
       </c>
       <c r="C3" s="3">
         <f>OctoberRaw!C3</f>
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="D3" s="3">
         <f>OctoberRaw!D3</f>
-        <v>0</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11482,15 +11482,15 @@
       </c>
       <c r="B4" s="2">
         <f>OctoberRaw!B4</f>
-        <v>0</v>
+        <v>7099</v>
       </c>
       <c r="C4" s="2">
         <f>OctoberRaw!C4</f>
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="D4" s="2">
         <f>OctoberRaw!D4</f>
-        <v>0</v>
+        <v>8312</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11499,15 +11499,15 @@
       </c>
       <c r="B5" s="3">
         <f>OctoberRaw!B5</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3">
         <f>OctoberRaw!C5</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3">
         <f>OctoberRaw!D5</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11516,15 +11516,15 @@
       </c>
       <c r="B6" s="2">
         <f>OctoberRaw!B6</f>
-        <v>0</v>
+        <v>4699</v>
       </c>
       <c r="C6" s="2">
         <f>OctoberRaw!C6</f>
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="D6" s="2">
         <f>OctoberRaw!D6</f>
-        <v>0</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11533,15 +11533,15 @@
       </c>
       <c r="B7" s="3">
         <f>OctoberRaw!B7</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="C7" s="3">
         <f>OctoberRaw!C7</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D7" s="3">
         <f>OctoberRaw!D7</f>
-        <v>0</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11550,15 +11550,15 @@
       </c>
       <c r="B8" s="2">
         <f>OctoberRaw!B8</f>
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="C8" s="2">
         <f>OctoberRaw!C8</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D8" s="2">
         <f>OctoberRaw!D8</f>
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11567,15 +11567,15 @@
       </c>
       <c r="B9" s="3">
         <f>OctoberRaw!B9</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C9" s="3">
         <f>OctoberRaw!C9</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3">
         <f>OctoberRaw!D9</f>
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="B10" s="2">
         <f>OctoberRaw!B10</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2">
         <f>OctoberRaw!C10</f>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="D10" s="2">
         <f>OctoberRaw!D10</f>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11618,15 +11618,15 @@
       </c>
       <c r="B12" s="4">
         <f>OctoberRaw!B12</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4">
         <f>OctoberRaw!C12</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4">
         <f>OctoberRaw!D12</f>
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11635,15 +11635,15 @@
       </c>
       <c r="B13" s="5">
         <f>OctoberRaw!B13</f>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="C13" s="5">
         <f>OctoberRaw!C13</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D13" s="5">
         <f>OctoberRaw!D13</f>
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11652,15 +11652,15 @@
       </c>
       <c r="B14" s="4">
         <f>OctoberRaw!B14</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="C14" s="4">
         <f>OctoberRaw!C14</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D14" s="4">
         <f>OctoberRaw!D14</f>
-        <v>0</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11669,15 +11669,15 @@
       </c>
       <c r="B15" s="5">
         <f>OctoberRaw!B15</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="C15" s="5">
         <f>OctoberRaw!C15</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5">
         <f>OctoberRaw!D15</f>
-        <v>0</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11686,15 +11686,15 @@
       </c>
       <c r="B16" s="2">
         <f>OctoberRaw!B16</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2">
         <f>OctoberRaw!C16</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2">
         <f>OctoberRaw!D16</f>
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11703,15 +11703,15 @@
       </c>
       <c r="B17" s="3">
         <f>OctoberRaw!B17</f>
-        <v>0</v>
+        <v>1383</v>
       </c>
       <c r="C17" s="3">
         <f>OctoberRaw!C17</f>
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="D17" s="3">
         <f>OctoberRaw!D17</f>
-        <v>0</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11720,15 +11720,15 @@
       </c>
       <c r="B18" s="2">
         <f>OctoberRaw!B18</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2">
         <f>OctoberRaw!C18</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2">
         <f>OctoberRaw!D18</f>
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11737,15 +11737,15 @@
       </c>
       <c r="B19" s="3">
         <f>OctoberRaw!B19</f>
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="C19" s="3">
         <f>OctoberRaw!C19</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="D19" s="3">
         <f>OctoberRaw!D19</f>
-        <v>0</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11754,15 +11754,15 @@
       </c>
       <c r="B20" s="2">
         <f>OctoberRaw!B20</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <f>OctoberRaw!C20</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2">
         <f>OctoberRaw!D20</f>
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11771,15 +11771,15 @@
       </c>
       <c r="B21" s="3">
         <f>OctoberRaw!B21</f>
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="C21" s="3">
         <f>OctoberRaw!C21</f>
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="D21" s="3">
         <f>OctoberRaw!D21</f>
-        <v>0</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11788,15 +11788,15 @@
       </c>
       <c r="B22" s="2">
         <f>OctoberRaw!B22</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2">
         <f>OctoberRaw!C22</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2">
         <f>OctoberRaw!D22</f>
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11805,15 +11805,15 @@
       </c>
       <c r="B23" s="3">
         <f>OctoberRaw!B23</f>
-        <v>0</v>
+        <v>1881</v>
       </c>
       <c r="C23" s="3">
         <f>OctoberRaw!C23</f>
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="D23" s="3">
         <f>OctoberRaw!D23</f>
-        <v>0</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11822,15 +11822,15 @@
       </c>
       <c r="B24" s="2">
         <f>OctoberRaw!B24</f>
-        <v>0</v>
+        <v>8782</v>
       </c>
       <c r="C24" s="2">
         <f>OctoberRaw!C24</f>
-        <v>0</v>
+        <v>1623</v>
       </c>
       <c r="D24" s="2">
         <f>OctoberRaw!D24</f>
-        <v>0</v>
+        <v>10405</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11839,15 +11839,15 @@
       </c>
       <c r="B25" s="3">
         <f>OctoberRaw!B25</f>
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="C25" s="3">
         <f>OctoberRaw!C25</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D25" s="3">
         <f>OctoberRaw!D25</f>
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11873,15 +11873,15 @@
       </c>
       <c r="B27" s="3">
         <f>OctoberRaw!B27</f>
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="C27" s="3">
         <f>OctoberRaw!C27</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="D27" s="3">
         <f>OctoberRaw!D27</f>
-        <v>0</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11890,15 +11890,15 @@
       </c>
       <c r="B28" s="2">
         <f>OctoberRaw!B28</f>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2">
         <f>OctoberRaw!C28</f>
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D28" s="2">
         <f>OctoberRaw!D28</f>
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11907,15 +11907,15 @@
       </c>
       <c r="B29" s="3">
         <f>OctoberRaw!B29</f>
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="C29" s="3">
         <f>OctoberRaw!C29</f>
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="D29" s="3">
         <f>OctoberRaw!D29</f>
-        <v>0</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11924,15 +11924,15 @@
       </c>
       <c r="B30" s="2">
         <f>OctoberRaw!B30</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2">
         <f>OctoberRaw!C30</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2">
         <f>OctoberRaw!D30</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11941,15 +11941,15 @@
       </c>
       <c r="B31" s="3">
         <f>OctoberRaw!B31</f>
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C31" s="3">
         <f>OctoberRaw!C31</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3">
         <f>OctoberRaw!D31</f>
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11958,15 +11958,15 @@
       </c>
       <c r="B32" s="2">
         <f>OctoberRaw!B32</f>
-        <v>0</v>
+        <v>1521</v>
       </c>
       <c r="C32" s="2">
         <f>OctoberRaw!C32</f>
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="D32" s="2">
         <f>OctoberRaw!D32</f>
-        <v>0</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11975,15 +11975,15 @@
       </c>
       <c r="B33" s="3">
         <f>OctoberRaw!B33</f>
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="C33" s="3">
         <f>OctoberRaw!C33</f>
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="D33" s="3">
         <f>OctoberRaw!D33</f>
-        <v>0</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11992,15 +11992,15 @@
       </c>
       <c r="B34" s="2">
         <f>OctoberRaw!B34</f>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="C34" s="2">
         <f>OctoberRaw!C34</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D34" s="2">
         <f>OctoberRaw!D34</f>
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12009,15 +12009,15 @@
       </c>
       <c r="B35" s="3">
         <f>OctoberRaw!B35</f>
-        <v>0</v>
+        <v>5506</v>
       </c>
       <c r="C35" s="3">
         <f>OctoberRaw!C35</f>
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="D35" s="3">
         <f>OctoberRaw!D35</f>
-        <v>0</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12026,15 +12026,15 @@
       </c>
       <c r="B36" s="2">
         <f>OctoberRaw!B36</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="C36" s="2">
         <f>OctoberRaw!C36</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D36" s="2">
         <f>OctoberRaw!D36</f>
-        <v>0</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12043,15 +12043,15 @@
       </c>
       <c r="B37" s="3">
         <f>OctoberRaw!B37</f>
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="C37" s="3">
         <f>OctoberRaw!C37</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="D37" s="3">
         <f>OctoberRaw!D37</f>
-        <v>0</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12060,15 +12060,15 @@
       </c>
       <c r="B38" s="2">
         <f>OctoberRaw!B38</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C38" s="2">
         <f>OctoberRaw!C38</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2">
         <f>OctoberRaw!D38</f>
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12077,15 +12077,15 @@
       </c>
       <c r="B39" s="3">
         <f>OctoberRaw!B39</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C39" s="3">
         <f>OctoberRaw!C39</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D39" s="3">
         <f>OctoberRaw!D39</f>
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12094,15 +12094,15 @@
       </c>
       <c r="B40" s="6">
         <f>OctoberRaw!B40</f>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="C40" s="6">
         <f>OctoberRaw!C40</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D40" s="6">
         <f>OctoberRaw!D40</f>
-        <v>0</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12111,15 +12111,15 @@
       </c>
       <c r="B41" s="7">
         <f>OctoberRaw!B41</f>
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="C41" s="7">
         <f>OctoberRaw!C41</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D41" s="7">
         <f>OctoberRaw!D41</f>
-        <v>0</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12128,15 +12128,15 @@
       </c>
       <c r="B42" s="6">
         <f>OctoberRaw!B42</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C42" s="6">
         <f>OctoberRaw!C42</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D42" s="6">
         <f>OctoberRaw!D42</f>
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12145,15 +12145,15 @@
       </c>
       <c r="B43" s="7">
         <f>OctoberRaw!B43</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="C43" s="7">
         <f>OctoberRaw!C43</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D43" s="7">
         <f>OctoberRaw!D43</f>
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12179,15 +12179,15 @@
       </c>
       <c r="B45" s="3">
         <f>OctoberRaw!B45</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C45" s="3">
         <f>OctoberRaw!C45</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D45" s="3">
         <f>OctoberRaw!D45</f>
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12196,15 +12196,15 @@
       </c>
       <c r="B46" s="2">
         <f>OctoberRaw!B46</f>
-        <v>0</v>
+        <v>1413</v>
       </c>
       <c r="C46" s="2">
         <f>OctoberRaw!C46</f>
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="D46" s="2">
         <f>OctoberRaw!D46</f>
-        <v>0</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12213,15 +12213,15 @@
       </c>
       <c r="B47" s="3">
         <f>OctoberRaw!B47</f>
-        <v>0</v>
+        <v>2962</v>
       </c>
       <c r="C47" s="3">
         <f>OctoberRaw!C47</f>
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="D47" s="3">
         <f>OctoberRaw!D47</f>
-        <v>0</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12230,15 +12230,15 @@
       </c>
       <c r="B48" s="2">
         <f>OctoberRaw!B48</f>
-        <v>0</v>
+        <v>1509</v>
       </c>
       <c r="C48" s="2">
         <f>OctoberRaw!C48</f>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="D48" s="2">
         <f>OctoberRaw!D48</f>
-        <v>0</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12247,15 +12247,15 @@
       </c>
       <c r="B49" s="3">
         <f>OctoberRaw!B49</f>
-        <v>0</v>
+        <v>1177</v>
       </c>
       <c r="C49" s="3">
         <f>OctoberRaw!C49</f>
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="D49" s="3">
         <f>OctoberRaw!D49</f>
-        <v>0</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12264,15 +12264,15 @@
       </c>
       <c r="B50" s="2">
         <f>OctoberRaw!B50</f>
-        <v>0</v>
+        <v>3126</v>
       </c>
       <c r="C50" s="2">
         <f>OctoberRaw!C50</f>
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="D50" s="2">
         <f>OctoberRaw!D50</f>
-        <v>0</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12281,15 +12281,15 @@
       </c>
       <c r="B51" s="3">
         <f>OctoberRaw!B51</f>
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="C51" s="3">
         <f>OctoberRaw!C51</f>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="D51" s="3">
         <f>OctoberRaw!D51</f>
-        <v>0</v>
+        <v>804</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12298,15 +12298,15 @@
       </c>
       <c r="B52" s="2">
         <f>OctoberRaw!B52</f>
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="C52" s="2">
         <f>OctoberRaw!C52</f>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="D52" s="2">
         <f>OctoberRaw!D52</f>
-        <v>0</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12315,15 +12315,15 @@
       </c>
       <c r="B53" s="3">
         <f>OctoberRaw!B53</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C53" s="3">
         <f>OctoberRaw!C53</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D53" s="3">
         <f>OctoberRaw!D53</f>
-        <v>0</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12332,15 +12332,15 @@
       </c>
       <c r="B54" s="2">
         <f>OctoberRaw!B54</f>
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="C54" s="2">
         <f>OctoberRaw!C54</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D54" s="2">
         <f>OctoberRaw!D54</f>
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12349,15 +12349,15 @@
       </c>
       <c r="B55" s="3">
         <f>OctoberRaw!B55</f>
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="C55" s="3">
         <f>OctoberRaw!C55</f>
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="D55" s="3">
         <f>OctoberRaw!D55</f>
-        <v>0</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12366,15 +12366,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12383,15 +12383,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>3483</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3605</v>
       </c>
     </row>
   </sheetData>
@@ -12403,12 +12403,753 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EDC6F-90A6-4086-B305-126909618543}">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4436</v>
+      </c>
+      <c r="C2">
+        <v>1716</v>
+      </c>
+      <c r="D2">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2809</v>
+      </c>
+      <c r="C3">
+        <v>712</v>
+      </c>
+      <c r="D3">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7099</v>
+      </c>
+      <c r="C4">
+        <v>1213</v>
+      </c>
+      <c r="D4">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4699</v>
+      </c>
+      <c r="C6">
+        <v>1258</v>
+      </c>
+      <c r="D6">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>496</v>
+      </c>
+      <c r="C7">
+        <v>175</v>
+      </c>
+      <c r="D7">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>608</v>
+      </c>
+      <c r="C8">
+        <v>181</v>
+      </c>
+      <c r="D8">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>206</v>
+      </c>
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>173</v>
+      </c>
+      <c r="C13">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>435</v>
+      </c>
+      <c r="C14">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>259</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>190</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1383</v>
+      </c>
+      <c r="C17">
+        <v>701</v>
+      </c>
+      <c r="D17">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>139</v>
+      </c>
+      <c r="C18">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1654</v>
+      </c>
+      <c r="C19">
+        <v>615</v>
+      </c>
+      <c r="D19">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1656</v>
+      </c>
+      <c r="C21">
+        <v>557</v>
+      </c>
+      <c r="D21">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>167</v>
+      </c>
+      <c r="C22">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1881</v>
+      </c>
+      <c r="C23">
+        <v>635</v>
+      </c>
+      <c r="D23">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8782</v>
+      </c>
+      <c r="C24">
+        <v>1623</v>
+      </c>
+      <c r="D24">
+        <v>10405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>608</v>
+      </c>
+      <c r="C25">
+        <v>169</v>
+      </c>
+      <c r="D25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>499</v>
+      </c>
+      <c r="C27">
+        <v>252</v>
+      </c>
+      <c r="D27">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>304</v>
+      </c>
+      <c r="C28">
+        <v>151</v>
+      </c>
+      <c r="D28">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1536</v>
+      </c>
+      <c r="C29">
+        <v>701</v>
+      </c>
+      <c r="D29">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>272</v>
+      </c>
+      <c r="C31">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1521</v>
+      </c>
+      <c r="C32">
+        <v>443</v>
+      </c>
+      <c r="D32">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>903</v>
+      </c>
+      <c r="C33">
+        <v>367</v>
+      </c>
+      <c r="D33">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>479</v>
+      </c>
+      <c r="C34">
+        <v>185</v>
+      </c>
+      <c r="D34">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5506</v>
+      </c>
+      <c r="C35">
+        <v>910</v>
+      </c>
+      <c r="D35">
+        <v>6416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>780</v>
+      </c>
+      <c r="C36">
+        <v>186</v>
+      </c>
+      <c r="D36">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2820</v>
+      </c>
+      <c r="C37">
+        <v>615</v>
+      </c>
+      <c r="D37">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>187</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>127</v>
+      </c>
+      <c r="C39">
+        <v>98</v>
+      </c>
+      <c r="D39">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>475</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2820</v>
+      </c>
+      <c r="C41">
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>149</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>340</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1413</v>
+      </c>
+      <c r="C46">
+        <v>626</v>
+      </c>
+      <c r="D46">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2962</v>
+      </c>
+      <c r="C47">
+        <v>1154</v>
+      </c>
+      <c r="D47">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1509</v>
+      </c>
+      <c r="C48">
+        <v>242</v>
+      </c>
+      <c r="D48">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1177</v>
+      </c>
+      <c r="C49">
+        <v>621</v>
+      </c>
+      <c r="D49">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3126</v>
+      </c>
+      <c r="C50">
+        <v>807</v>
+      </c>
+      <c r="D50">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>536</v>
+      </c>
+      <c r="C51">
+        <v>268</v>
+      </c>
+      <c r="D51">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>986</v>
+      </c>
+      <c r="C52">
+        <v>374</v>
+      </c>
+      <c r="D52">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>136</v>
+      </c>
+      <c r="C53">
+        <v>203</v>
+      </c>
+      <c r="D53">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>239</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>337</v>
+      </c>
+      <c r="C55">
+        <v>407</v>
+      </c>
+      <c r="D55">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2024/2024_99_g_sharing.xlsx
+++ b/statistics_files/2024/2024_99_g_sharing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3001C-60BB-485E-8EB5-79F85722927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8CC06-31CB-4C78-A9D7-7A833187744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -766,15 +766,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>45870</v>
+        <v>49969</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>14389</v>
+        <v>15885</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>60259</v>
+        <v>65854</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,15 +783,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>29672</v>
+        <v>32095</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>6346</v>
+        <v>6847</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>36018</v>
+        <v>38942</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -800,15 +800,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>82929</v>
+        <v>89733</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>11795</v>
+        <v>12883</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>94724</v>
+        <v>102616</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,15 +817,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>1336</v>
+        <v>1423</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1770</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,15 +834,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>53027</v>
+        <v>57197</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>10736</v>
+        <v>11635</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>63763</v>
+        <v>68832</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,15 +851,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>4724</v>
+        <v>5112</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>2772</v>
+        <v>2900</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>7496</v>
+        <v>8012</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,15 +868,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>6211</v>
+        <v>6697</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1338</v>
+        <v>1471</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>7549</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,15 +885,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>3265</v>
+        <v>3443</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>3713</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,15 +902,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>1384</v>
+        <v>1481</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>1403</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,15 +936,15 @@
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>908</v>
+        <v>992</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>1237</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,15 +953,15 @@
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>2177</v>
+        <v>2312</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>1430</v>
+        <v>1505</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>3607</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,15 +970,15 @@
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>5016</v>
+        <v>5417</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1396</v>
+        <v>1596</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>6412</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,15 +987,15 @@
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>3916</v>
+        <v>4137</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>4529</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,15 +1004,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>3009</v>
+        <v>3226</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>3616</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1021,15 +1021,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>17662</v>
+        <v>19056</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>6070</v>
+        <v>6622</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>23732</v>
+        <v>25678</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1038,15 +1038,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>1105</v>
+        <v>1160</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>771</v>
+        <v>858</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>1876</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,15 +1055,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>18370</v>
+        <v>19867</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>5451</v>
+        <v>5895</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>23821</v>
+        <v>25762</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,15 +1072,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>461</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1089,15 +1089,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>18629</v>
+        <v>20131</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>4966</v>
+        <v>5466</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>23595</v>
+        <v>25597</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,15 +1106,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>1287</v>
+        <v>1471</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>1574</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,15 +1123,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>19797</v>
+        <v>21561</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>6542</v>
+        <v>7017</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>26339</v>
+        <v>28578</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,15 +1140,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>87973</v>
+        <v>96048</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>16658</v>
+        <v>17995</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>104631</v>
+        <v>114043</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,15 +1157,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>6578</v>
+        <v>7048</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1474</v>
+        <v>1640</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>8052</v>
+        <v>8688</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,15 +1191,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>4615</v>
+        <v>5028</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>2413</v>
+        <v>2627</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>7028</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,15 +1208,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>2250</v>
+        <v>2489</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>892</v>
+        <v>1004</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>3142</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,15 +1225,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>14094</v>
+        <v>15536</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>5546</v>
+        <v>6207</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>19640</v>
+        <v>21743</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,15 +1242,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>620</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,15 +1259,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>3402</v>
+        <v>3593</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>3955</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,15 +1276,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>14578</v>
+        <v>15776</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>4294</v>
+        <v>4731</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>18872</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,15 +1293,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>11658</v>
+        <v>12370</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>3567</v>
+        <v>3821</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>15225</v>
+        <v>16191</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,15 +1310,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>5010</v>
+        <v>5352</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1760</v>
+        <v>1908</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>6770</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,15 +1327,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>67589</v>
+        <v>72900</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>8509</v>
+        <v>9364</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>76098</v>
+        <v>82264</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,15 +1344,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>8843</v>
+        <v>9552</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>1932</v>
+        <v>2065</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>10775</v>
+        <v>11617</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,15 +1361,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>31529</v>
+        <v>34203</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>4888</v>
+        <v>5350</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>36417</v>
+        <v>39553</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,15 +1378,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>1294</v>
+        <v>1425</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>1591</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,15 +1395,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>986</v>
+        <v>1146</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>796</v>
+        <v>880</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>1782</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>3200</v>
+        <v>3524</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>3430</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,15 +1429,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>13337</v>
+        <v>15567</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>465</v>
+        <v>574</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>13802</v>
+        <v>16141</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,15 +1446,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,15 +1463,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>1003</v>
+        <v>1150</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>1060</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,15 +1497,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>3656</v>
+        <v>4014</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>772</v>
+        <v>824</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>4428</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,15 +1514,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>13461</v>
+        <v>14767</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>5267</v>
+        <v>5684</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>18728</v>
+        <v>20451</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,15 +1531,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>34856</v>
+        <v>37055</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>10574</v>
+        <v>11431</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>45430</v>
+        <v>48486</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,15 +1548,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>18487</v>
+        <v>19732</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>2495</v>
+        <v>2667</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>20982</v>
+        <v>22399</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,15 +1565,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>10725</v>
+        <v>11831</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>5676</v>
+        <v>6336</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>16401</v>
+        <v>18167</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,15 +1582,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>35059</v>
+        <v>37842</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>9244</v>
+        <v>9934</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>44303</v>
+        <v>47776</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,15 +1599,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>4762</v>
+        <v>5224</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>2214</v>
+        <v>2405</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>6976</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,15 +1616,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>11389</v>
+        <v>12228</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>3541</v>
+        <v>3853</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>14930</v>
+        <v>16081</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1633,15 +1633,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1570</v>
+        <v>1668</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>1371</v>
+        <v>1604</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>2941</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,15 +1650,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>2644</v>
+        <v>2806</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>2928</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,15 +1667,15 @@
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>3709</v>
+        <v>3965</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>3268</v>
+        <v>3690</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>6977</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1684,15 +1684,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>12017</v>
+        <v>12858</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>3768</v>
+        <v>4102</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>15785</v>
+        <v>16960</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,15 +1701,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>17840</v>
+        <v>20549</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>816</v>
+        <v>970</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>18656</v>
+        <v>21519</v>
       </c>
     </row>
   </sheetData>
@@ -13163,7 +13163,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13192,15 +13192,15 @@
       </c>
       <c r="B2" s="2">
         <f>NovemberRaw!B2</f>
-        <v>0</v>
+        <v>4099</v>
       </c>
       <c r="C2" s="2">
         <f>NovemberRaw!C2</f>
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="D2" s="2">
         <f>NovemberRaw!D2</f>
-        <v>0</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13209,15 +13209,15 @@
       </c>
       <c r="B3" s="3">
         <f>NovemberRaw!B3</f>
-        <v>0</v>
+        <v>2423</v>
       </c>
       <c r="C3" s="3">
         <f>NovemberRaw!C3</f>
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="D3" s="3">
         <f>NovemberRaw!D3</f>
-        <v>0</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13226,15 +13226,15 @@
       </c>
       <c r="B4" s="2">
         <f>NovemberRaw!B4</f>
-        <v>0</v>
+        <v>6804</v>
       </c>
       <c r="C4" s="2">
         <f>NovemberRaw!C4</f>
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="D4" s="2">
         <f>NovemberRaw!D4</f>
-        <v>0</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13243,15 +13243,15 @@
       </c>
       <c r="B5" s="3">
         <f>NovemberRaw!B5</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3">
         <f>NovemberRaw!C5</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3">
         <f>NovemberRaw!D5</f>
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13260,15 +13260,15 @@
       </c>
       <c r="B6" s="2">
         <f>NovemberRaw!B6</f>
-        <v>0</v>
+        <v>4170</v>
       </c>
       <c r="C6" s="2">
         <f>NovemberRaw!C6</f>
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="D6" s="2">
         <f>NovemberRaw!D6</f>
-        <v>0</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13277,15 +13277,15 @@
       </c>
       <c r="B7" s="3">
         <f>NovemberRaw!B7</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="C7" s="3">
         <f>NovemberRaw!C7</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3">
         <f>NovemberRaw!D7</f>
-        <v>0</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13294,15 +13294,15 @@
       </c>
       <c r="B8" s="2">
         <f>NovemberRaw!B8</f>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="C8" s="2">
         <f>NovemberRaw!C8</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2">
         <f>NovemberRaw!D8</f>
-        <v>0</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13311,15 +13311,15 @@
       </c>
       <c r="B9" s="3">
         <f>NovemberRaw!B9</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="C9" s="3">
         <f>NovemberRaw!C9</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3">
         <f>NovemberRaw!D9</f>
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13328,15 +13328,15 @@
       </c>
       <c r="B10" s="2">
         <f>NovemberRaw!B10</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2">
         <f>NovemberRaw!C10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <f>NovemberRaw!D10</f>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13362,15 +13362,15 @@
       </c>
       <c r="B12" s="4">
         <f>NovemberRaw!B12</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4">
         <f>NovemberRaw!C12</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
         <f>NovemberRaw!D12</f>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13379,15 +13379,15 @@
       </c>
       <c r="B13" s="5">
         <f>NovemberRaw!B13</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C13" s="5">
         <f>NovemberRaw!C13</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D13" s="5">
         <f>NovemberRaw!D13</f>
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13396,15 +13396,15 @@
       </c>
       <c r="B14" s="4">
         <f>NovemberRaw!B14</f>
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="C14" s="4">
         <f>NovemberRaw!C14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D14" s="4">
         <f>NovemberRaw!D14</f>
-        <v>0</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13413,15 +13413,15 @@
       </c>
       <c r="B15" s="5">
         <f>NovemberRaw!B15</f>
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C15" s="5">
         <f>NovemberRaw!C15</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5">
         <f>NovemberRaw!D15</f>
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13430,15 +13430,15 @@
       </c>
       <c r="B16" s="2">
         <f>NovemberRaw!B16</f>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C16" s="2">
         <f>NovemberRaw!C16</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2">
         <f>NovemberRaw!D16</f>
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13447,15 +13447,15 @@
       </c>
       <c r="B17" s="3">
         <f>NovemberRaw!B17</f>
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="C17" s="3">
         <f>NovemberRaw!C17</f>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="D17" s="3">
         <f>NovemberRaw!D17</f>
-        <v>0</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13464,15 +13464,15 @@
       </c>
       <c r="B18" s="2">
         <f>NovemberRaw!B18</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2">
         <f>NovemberRaw!C18</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <f>NovemberRaw!D18</f>
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13481,15 +13481,15 @@
       </c>
       <c r="B19" s="3">
         <f>NovemberRaw!B19</f>
-        <v>0</v>
+        <v>1497</v>
       </c>
       <c r="C19" s="3">
         <f>NovemberRaw!C19</f>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="D19" s="3">
         <f>NovemberRaw!D19</f>
-        <v>0</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13498,15 +13498,15 @@
       </c>
       <c r="B20" s="2">
         <f>NovemberRaw!B20</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
         <f>NovemberRaw!C20</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2">
         <f>NovemberRaw!D20</f>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13515,15 +13515,15 @@
       </c>
       <c r="B21" s="3">
         <f>NovemberRaw!B21</f>
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="C21" s="3">
         <f>NovemberRaw!C21</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D21" s="3">
         <f>NovemberRaw!D21</f>
-        <v>0</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13532,15 +13532,15 @@
       </c>
       <c r="B22" s="2">
         <f>NovemberRaw!B22</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2">
         <f>NovemberRaw!C22</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <f>NovemberRaw!D22</f>
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13549,15 +13549,15 @@
       </c>
       <c r="B23" s="3">
         <f>NovemberRaw!B23</f>
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="C23" s="3">
         <f>NovemberRaw!C23</f>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="D23" s="3">
         <f>NovemberRaw!D23</f>
-        <v>0</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13566,15 +13566,15 @@
       </c>
       <c r="B24" s="2">
         <f>NovemberRaw!B24</f>
-        <v>0</v>
+        <v>8075</v>
       </c>
       <c r="C24" s="2">
         <f>NovemberRaw!C24</f>
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="D24" s="2">
         <f>NovemberRaw!D24</f>
-        <v>0</v>
+        <v>9412</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13583,15 +13583,15 @@
       </c>
       <c r="B25" s="3">
         <f>NovemberRaw!B25</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C25" s="3">
         <f>NovemberRaw!C25</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D25" s="3">
         <f>NovemberRaw!D25</f>
-        <v>0</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13617,15 +13617,15 @@
       </c>
       <c r="B27" s="3">
         <f>NovemberRaw!B27</f>
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="C27" s="3">
         <f>NovemberRaw!C27</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D27" s="3">
         <f>NovemberRaw!D27</f>
-        <v>0</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13634,15 +13634,15 @@
       </c>
       <c r="B28" s="2">
         <f>NovemberRaw!B28</f>
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2">
         <f>NovemberRaw!C28</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2">
         <f>NovemberRaw!D28</f>
-        <v>0</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13651,15 +13651,15 @@
       </c>
       <c r="B29" s="3">
         <f>NovemberRaw!B29</f>
-        <v>0</v>
+        <v>1442</v>
       </c>
       <c r="C29" s="3">
         <f>NovemberRaw!C29</f>
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="D29" s="3">
         <f>NovemberRaw!D29</f>
-        <v>0</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13668,15 +13668,15 @@
       </c>
       <c r="B30" s="2">
         <f>NovemberRaw!B30</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2">
         <f>NovemberRaw!C30</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2">
         <f>NovemberRaw!D30</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13685,15 +13685,15 @@
       </c>
       <c r="B31" s="3">
         <f>NovemberRaw!B31</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3">
         <f>NovemberRaw!C31</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3">
         <f>NovemberRaw!D31</f>
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13702,15 +13702,15 @@
       </c>
       <c r="B32" s="2">
         <f>NovemberRaw!B32</f>
-        <v>0</v>
+        <v>1198</v>
       </c>
       <c r="C32" s="2">
         <f>NovemberRaw!C32</f>
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="D32" s="2">
         <f>NovemberRaw!D32</f>
-        <v>0</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13719,15 +13719,15 @@
       </c>
       <c r="B33" s="3">
         <f>NovemberRaw!B33</f>
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="C33" s="3">
         <f>NovemberRaw!C33</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="D33" s="3">
         <f>NovemberRaw!D33</f>
-        <v>0</v>
+        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13736,15 +13736,15 @@
       </c>
       <c r="B34" s="2">
         <f>NovemberRaw!B34</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2">
         <f>NovemberRaw!C34</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2">
         <f>NovemberRaw!D34</f>
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13753,15 +13753,15 @@
       </c>
       <c r="B35" s="3">
         <f>NovemberRaw!B35</f>
-        <v>0</v>
+        <v>5311</v>
       </c>
       <c r="C35" s="3">
         <f>NovemberRaw!C35</f>
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="D35" s="3">
         <f>NovemberRaw!D35</f>
-        <v>0</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13770,15 +13770,15 @@
       </c>
       <c r="B36" s="2">
         <f>NovemberRaw!B36</f>
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="C36" s="2">
         <f>NovemberRaw!C36</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2">
         <f>NovemberRaw!D36</f>
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13787,15 +13787,15 @@
       </c>
       <c r="B37" s="3">
         <f>NovemberRaw!B37</f>
-        <v>0</v>
+        <v>2674</v>
       </c>
       <c r="C37" s="3">
         <f>NovemberRaw!C37</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="D37" s="3">
         <f>NovemberRaw!D37</f>
-        <v>0</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13804,15 +13804,15 @@
       </c>
       <c r="B38" s="2">
         <f>NovemberRaw!B38</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C38" s="2">
         <f>NovemberRaw!C38</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <f>NovemberRaw!D38</f>
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,15 +13821,15 @@
       </c>
       <c r="B39" s="3">
         <f>NovemberRaw!B39</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C39" s="3">
         <f>NovemberRaw!C39</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3">
         <f>NovemberRaw!D39</f>
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13838,15 +13838,15 @@
       </c>
       <c r="B40" s="6">
         <f>NovemberRaw!B40</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="C40" s="6">
         <f>NovemberRaw!C40</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D40" s="6">
         <f>NovemberRaw!D40</f>
-        <v>0</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13855,15 +13855,15 @@
       </c>
       <c r="B41" s="7">
         <f>NovemberRaw!B41</f>
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="C41" s="7">
         <f>NovemberRaw!C41</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D41" s="7">
         <f>NovemberRaw!D41</f>
-        <v>0</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13872,15 +13872,15 @@
       </c>
       <c r="B42" s="6">
         <f>NovemberRaw!B42</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C42" s="6">
         <f>NovemberRaw!C42</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D42" s="6">
         <f>NovemberRaw!D42</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13889,15 +13889,15 @@
       </c>
       <c r="B43" s="7">
         <f>NovemberRaw!B43</f>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C43" s="7">
         <f>NovemberRaw!C43</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D43" s="7">
         <f>NovemberRaw!D43</f>
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13923,15 +13923,15 @@
       </c>
       <c r="B45" s="3">
         <f>NovemberRaw!B45</f>
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="C45" s="3">
         <f>NovemberRaw!C45</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D45" s="3">
         <f>NovemberRaw!D45</f>
-        <v>0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13940,15 +13940,15 @@
       </c>
       <c r="B46" s="2">
         <f>NovemberRaw!B46</f>
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="C46" s="2">
         <f>NovemberRaw!C46</f>
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="D46" s="2">
         <f>NovemberRaw!D46</f>
-        <v>0</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13957,15 +13957,15 @@
       </c>
       <c r="B47" s="3">
         <f>NovemberRaw!B47</f>
-        <v>0</v>
+        <v>2199</v>
       </c>
       <c r="C47" s="3">
         <f>NovemberRaw!C47</f>
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="D47" s="3">
         <f>NovemberRaw!D47</f>
-        <v>0</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13974,15 +13974,15 @@
       </c>
       <c r="B48" s="2">
         <f>NovemberRaw!B48</f>
-        <v>0</v>
+        <v>1245</v>
       </c>
       <c r="C48" s="2">
         <f>NovemberRaw!C48</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D48" s="2">
         <f>NovemberRaw!D48</f>
-        <v>0</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13991,15 +13991,15 @@
       </c>
       <c r="B49" s="3">
         <f>NovemberRaw!B49</f>
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="C49" s="3">
         <f>NovemberRaw!C49</f>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="D49" s="3">
         <f>NovemberRaw!D49</f>
-        <v>0</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14008,15 +14008,15 @@
       </c>
       <c r="B50" s="2">
         <f>NovemberRaw!B50</f>
-        <v>0</v>
+        <v>2783</v>
       </c>
       <c r="C50" s="2">
         <f>NovemberRaw!C50</f>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="D50" s="2">
         <f>NovemberRaw!D50</f>
-        <v>0</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14025,15 +14025,15 @@
       </c>
       <c r="B51" s="3">
         <f>NovemberRaw!B51</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="C51" s="3">
         <f>NovemberRaw!C51</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D51" s="3">
         <f>NovemberRaw!D51</f>
-        <v>0</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14042,15 +14042,15 @@
       </c>
       <c r="B52" s="2">
         <f>NovemberRaw!B52</f>
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="C52" s="2">
         <f>NovemberRaw!C52</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="D52" s="2">
         <f>NovemberRaw!D52</f>
-        <v>0</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14059,15 +14059,15 @@
       </c>
       <c r="B53" s="3">
         <f>NovemberRaw!B53</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C53" s="3">
         <f>NovemberRaw!C53</f>
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D53" s="3">
         <f>NovemberRaw!D53</f>
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14076,15 +14076,15 @@
       </c>
       <c r="B54" s="2">
         <f>NovemberRaw!B54</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="C54" s="2">
         <f>NovemberRaw!C54</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2">
         <f>NovemberRaw!D54</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14093,15 +14093,15 @@
       </c>
       <c r="B55" s="3">
         <f>NovemberRaw!B55</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="C55" s="3">
         <f>NovemberRaw!C55</f>
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="D55" s="3">
         <f>NovemberRaw!D55</f>
-        <v>0</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14110,15 +14110,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14127,15 +14127,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>2709</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2863</v>
       </c>
     </row>
   </sheetData>
@@ -14147,12 +14147,756 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3368A3-76CA-4C7F-BBF6-FE5579FAD35B}">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4099</v>
+      </c>
+      <c r="C2">
+        <v>1496</v>
+      </c>
+      <c r="D2">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2423</v>
+      </c>
+      <c r="C3">
+        <v>501</v>
+      </c>
+      <c r="D3">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6804</v>
+      </c>
+      <c r="C4">
+        <v>1088</v>
+      </c>
+      <c r="D4">
+        <v>7892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4170</v>
+      </c>
+      <c r="C6">
+        <v>899</v>
+      </c>
+      <c r="D6">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>388</v>
+      </c>
+      <c r="C7">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>486</v>
+      </c>
+      <c r="C8">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>178</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>135</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>401</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>221</v>
+      </c>
+      <c r="C15">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>217</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1394</v>
+      </c>
+      <c r="C17">
+        <v>552</v>
+      </c>
+      <c r="D17">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1497</v>
+      </c>
+      <c r="C19">
+        <v>444</v>
+      </c>
+      <c r="D19">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1502</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>184</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1764</v>
+      </c>
+      <c r="C23">
+        <v>475</v>
+      </c>
+      <c r="D23">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8075</v>
+      </c>
+      <c r="C24">
+        <v>1337</v>
+      </c>
+      <c r="D24">
+        <v>9412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>470</v>
+      </c>
+      <c r="C25">
+        <v>166</v>
+      </c>
+      <c r="D25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>413</v>
+      </c>
+      <c r="C27">
+        <v>214</v>
+      </c>
+      <c r="D27">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>239</v>
+      </c>
+      <c r="C28">
+        <v>112</v>
+      </c>
+      <c r="D28">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1442</v>
+      </c>
+      <c r="C29">
+        <v>661</v>
+      </c>
+      <c r="D29">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>191</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1198</v>
+      </c>
+      <c r="C32">
+        <v>437</v>
+      </c>
+      <c r="D32">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>712</v>
+      </c>
+      <c r="C33">
+        <v>254</v>
+      </c>
+      <c r="D33">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>342</v>
+      </c>
+      <c r="C34">
+        <v>148</v>
+      </c>
+      <c r="D34">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5311</v>
+      </c>
+      <c r="C35">
+        <v>855</v>
+      </c>
+      <c r="D35">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>709</v>
+      </c>
+      <c r="C36">
+        <v>133</v>
+      </c>
+      <c r="D36">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2674</v>
+      </c>
+      <c r="C37">
+        <v>462</v>
+      </c>
+      <c r="D37">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>131</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>160</v>
+      </c>
+      <c r="C39">
+        <v>84</v>
+      </c>
+      <c r="D39">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>324</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2230</v>
+      </c>
+      <c r="C41">
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>147</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>358</v>
+      </c>
+      <c r="C45">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1306</v>
+      </c>
+      <c r="C46">
+        <v>417</v>
+      </c>
+      <c r="D46">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2199</v>
+      </c>
+      <c r="C47">
+        <v>857</v>
+      </c>
+      <c r="D47">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1245</v>
+      </c>
+      <c r="C48">
+        <v>172</v>
+      </c>
+      <c r="D48">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1106</v>
+      </c>
+      <c r="C49">
+        <v>660</v>
+      </c>
+      <c r="D49">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2783</v>
+      </c>
+      <c r="C50">
+        <v>690</v>
+      </c>
+      <c r="D50">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>462</v>
+      </c>
+      <c r="C51">
+        <v>191</v>
+      </c>
+      <c r="D51">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>839</v>
+      </c>
+      <c r="C52">
+        <v>312</v>
+      </c>
+      <c r="D52">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>98</v>
+      </c>
+      <c r="C53">
+        <v>233</v>
+      </c>
+      <c r="D53">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>162</v>
+      </c>
+      <c r="C54">
+        <v>38</v>
+      </c>
+      <c r="D54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>256</v>
+      </c>
+      <c r="C55">
+        <v>422</v>
+      </c>
+      <c r="D55">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2024/2024_99_g_sharing.xlsx
+++ b/statistics_files/2024/2024_99_g_sharing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8CC06-31CB-4C78-A9D7-7A833187744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6788700-48FB-4BB0-A657-189AEE29EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -766,15 +766,15 @@
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>49969</v>
+        <v>53304</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>15885</v>
+        <v>17209</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>65854</v>
+        <v>70513</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,15 +783,15 @@
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>32095</v>
+        <v>34295</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>6847</v>
+        <v>7357</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>38942</v>
+        <v>41652</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -800,15 +800,15 @@
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>89733</v>
+        <v>96730</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>12883</v>
+        <v>13858</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>102616</v>
+        <v>110588</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,15 +817,15 @@
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>1423</v>
+        <v>1516</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1897</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,15 +834,15 @@
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>57197</v>
+        <v>61403</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>11635</v>
+        <v>12471</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>68832</v>
+        <v>73874</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,15 +851,15 @@
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>5112</v>
+        <v>5465</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>2900</v>
+        <v>3054</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>8012</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,15 +868,15 @@
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>6697</v>
+        <v>7218</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>1471</v>
+        <v>1611</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>8168</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,15 +885,15 @@
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>3443</v>
+        <v>3645</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>3920</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,15 +902,15 @@
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>1481</v>
+        <v>1524</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>1505</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,15 +936,15 @@
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>992</v>
+        <v>1069</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>1332</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,15 +953,15 @@
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>2312</v>
+        <v>2468</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>1505</v>
+        <v>1596</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>3817</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,15 +970,15 @@
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>5417</v>
+        <v>5813</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>1596</v>
+        <v>1740</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>7013</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,15 +987,15 @@
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>4137</v>
+        <v>4336</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>4798</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,15 +1004,15 @@
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>3226</v>
+        <v>3413</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>644</v>
+        <v>708</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>3870</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1021,15 +1021,15 @@
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>19056</v>
+        <v>20187</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>6622</v>
+        <v>7121</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>25678</v>
+        <v>27308</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1038,15 +1038,15 @@
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>1160</v>
+        <v>1207</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>858</v>
+        <v>922</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>2018</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,15 +1055,15 @@
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>19867</v>
+        <v>21223</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>5895</v>
+        <v>6322</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>25762</v>
+        <v>27545</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,15 +1072,15 @@
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1089,15 +1089,15 @@
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>20131</v>
+        <v>21481</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>5466</v>
+        <v>5943</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>25597</v>
+        <v>27424</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,15 +1106,15 @@
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>1471</v>
+        <v>1640</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>1791</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,15 +1123,15 @@
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>21561</v>
+        <v>23145</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>7017</v>
+        <v>7484</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>28578</v>
+        <v>30629</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,15 +1140,15 @@
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>96048</v>
+        <v>103095</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>17995</v>
+        <v>19415</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>114043</v>
+        <v>122510</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1157,15 +1157,15 @@
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>7048</v>
+        <v>7564</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>1640</v>
+        <v>1817</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>8688</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,15 +1191,15 @@
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>5028</v>
+        <v>5379</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>2627</v>
+        <v>2854</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>7655</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,15 +1208,15 @@
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>2489</v>
+        <v>2705</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>1004</v>
+        <v>1077</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>3493</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,15 +1225,15 @@
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>15536</v>
+        <v>16616</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>6207</v>
+        <v>6746</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>21743</v>
+        <v>23362</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,15 +1242,15 @@
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>641</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,15 +1259,15 @@
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>3593</v>
+        <v>3827</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>616</v>
+        <v>663</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>4209</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,15 +1276,15 @@
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>15776</v>
+        <v>16923</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>4731</v>
+        <v>5085</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>20507</v>
+        <v>22008</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,15 +1293,15 @@
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>12370</v>
+        <v>13312</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>3821</v>
+        <v>4143</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>16191</v>
+        <v>17455</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,15 +1310,15 @@
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>5352</v>
+        <v>5798</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>1908</v>
+        <v>2086</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>7260</v>
+        <v>7884</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,15 +1327,15 @@
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>72900</v>
+        <v>77700</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>9364</v>
+        <v>10096</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>82264</v>
+        <v>87796</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,15 +1344,15 @@
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>9552</v>
+        <v>10216</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>2065</v>
+        <v>2188</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>11617</v>
+        <v>12404</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,15 +1361,15 @@
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>34203</v>
+        <v>36980</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>5350</v>
+        <v>5834</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>39553</v>
+        <v>42814</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,15 +1378,15 @@
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>1425</v>
+        <v>1522</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>1753</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,15 +1395,15 @@
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>1146</v>
+        <v>1207</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>880</v>
+        <v>954</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>2026</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>3524</v>
+        <v>3791</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>3772</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,15 +1429,15 @@
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>15567</v>
+        <v>17272</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>16141</v>
+        <v>17934</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,15 +1446,15 @@
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,15 +1463,15 @@
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>1150</v>
+        <v>1255</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>1218</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,15 +1497,15 @@
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>4014</v>
+        <v>4295</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>824</v>
+        <v>887</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>4838</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,15 +1514,15 @@
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>14767</v>
+        <v>15785</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>5684</v>
+        <v>6083</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>20451</v>
+        <v>21868</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,15 +1531,15 @@
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>37055</v>
+        <v>39450</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>11431</v>
+        <v>12223</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>48486</v>
+        <v>51673</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,15 +1548,15 @@
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>19732</v>
+        <v>21092</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>2667</v>
+        <v>2822</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>22399</v>
+        <v>23914</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,15 +1565,15 @@
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>11831</v>
+        <v>12611</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>6336</v>
+        <v>6986</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>18167</v>
+        <v>19597</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,15 +1582,15 @@
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>37842</v>
+        <v>40513</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>9934</v>
+        <v>10711</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>47776</v>
+        <v>51224</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,15 +1599,15 @@
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>5224</v>
+        <v>5595</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>2405</v>
+        <v>2566</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>7629</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,15 +1616,15 @@
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>12228</v>
+        <v>12827</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>3853</v>
+        <v>4062</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>16081</v>
+        <v>16889</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1633,15 +1633,15 @@
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1668</v>
+        <v>1801</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>1604</v>
+        <v>1736</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>3272</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,15 +1650,15 @@
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>2806</v>
+        <v>2990</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>3128</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,15 +1667,15 @@
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>3965</v>
+        <v>4252</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>3690</v>
+        <v>4209</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>7655</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1684,15 +1684,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>12858</v>
+        <v>13686</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>4102</v>
+        <v>4399</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>18085</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,15 +1701,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>20549</v>
+        <v>22649</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>970</v>
+        <v>1088</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>21519</v>
+        <v>23737</v>
       </c>
     </row>
   </sheetData>
@@ -14939,15 +14939,15 @@
       </c>
       <c r="B2" s="2">
         <f>DecemberRaw!B2</f>
-        <v>0</v>
+        <v>3335</v>
       </c>
       <c r="C2" s="2">
         <f>DecemberRaw!C2</f>
-        <v>0</v>
+        <v>1324</v>
       </c>
       <c r="D2" s="2">
         <f>DecemberRaw!D2</f>
-        <v>0</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14956,15 +14956,15 @@
       </c>
       <c r="B3" s="3">
         <f>DecemberRaw!B3</f>
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="C3" s="3">
         <f>DecemberRaw!C3</f>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D3" s="3">
         <f>DecemberRaw!D3</f>
-        <v>0</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14973,15 +14973,15 @@
       </c>
       <c r="B4" s="2">
         <f>DecemberRaw!B4</f>
-        <v>0</v>
+        <v>6997</v>
       </c>
       <c r="C4" s="2">
         <f>DecemberRaw!C4</f>
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="D4" s="2">
         <f>DecemberRaw!D4</f>
-        <v>0</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14990,15 +14990,15 @@
       </c>
       <c r="B5" s="3">
         <f>DecemberRaw!B5</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3">
         <f>DecemberRaw!C5</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3">
         <f>DecemberRaw!D5</f>
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15007,15 +15007,15 @@
       </c>
       <c r="B6" s="2">
         <f>DecemberRaw!B6</f>
-        <v>0</v>
+        <v>4206</v>
       </c>
       <c r="C6" s="2">
         <f>DecemberRaw!C6</f>
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="D6" s="2">
         <f>DecemberRaw!D6</f>
-        <v>0</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15024,15 +15024,15 @@
       </c>
       <c r="B7" s="3">
         <f>DecemberRaw!B7</f>
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="C7" s="3">
         <f>DecemberRaw!C7</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D7" s="3">
         <f>DecemberRaw!D7</f>
-        <v>0</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15041,15 +15041,15 @@
       </c>
       <c r="B8" s="2">
         <f>DecemberRaw!B8</f>
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="C8" s="2">
         <f>DecemberRaw!C8</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2">
         <f>DecemberRaw!D8</f>
-        <v>0</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15058,15 +15058,15 @@
       </c>
       <c r="B9" s="3">
         <f>DecemberRaw!B9</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="C9" s="3">
         <f>DecemberRaw!C9</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3">
         <f>DecemberRaw!D9</f>
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15075,15 +15075,15 @@
       </c>
       <c r="B10" s="2">
         <f>DecemberRaw!B10</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2">
         <f>DecemberRaw!C10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <f>DecemberRaw!D10</f>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15109,15 +15109,15 @@
       </c>
       <c r="B12" s="4">
         <f>DecemberRaw!B12</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C12" s="4">
         <f>DecemberRaw!C12</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <f>DecemberRaw!D12</f>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15126,15 +15126,15 @@
       </c>
       <c r="B13" s="5">
         <f>DecemberRaw!B13</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C13" s="5">
         <f>DecemberRaw!C13</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5">
         <f>DecemberRaw!D13</f>
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15143,15 +15143,15 @@
       </c>
       <c r="B14" s="4">
         <f>DecemberRaw!B14</f>
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="C14" s="4">
         <f>DecemberRaw!C14</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D14" s="4">
         <f>DecemberRaw!D14</f>
-        <v>0</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15160,15 +15160,15 @@
       </c>
       <c r="B15" s="5">
         <f>DecemberRaw!B15</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C15" s="5">
         <f>DecemberRaw!C15</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5">
         <f>DecemberRaw!D15</f>
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15177,15 +15177,15 @@
       </c>
       <c r="B16" s="2">
         <f>DecemberRaw!B16</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2">
         <f>DecemberRaw!C16</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2">
         <f>DecemberRaw!D16</f>
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15194,15 +15194,15 @@
       </c>
       <c r="B17" s="3">
         <f>DecemberRaw!B17</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="C17" s="3">
         <f>DecemberRaw!C17</f>
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="D17" s="3">
         <f>DecemberRaw!D17</f>
-        <v>0</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15211,15 +15211,15 @@
       </c>
       <c r="B18" s="2">
         <f>DecemberRaw!B18</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2">
         <f>DecemberRaw!C18</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <f>DecemberRaw!D18</f>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15228,15 +15228,15 @@
       </c>
       <c r="B19" s="3">
         <f>DecemberRaw!B19</f>
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="C19" s="3">
         <f>DecemberRaw!C19</f>
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="D19" s="3">
         <f>DecemberRaw!D19</f>
-        <v>0</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15245,15 +15245,15 @@
       </c>
       <c r="B20" s="2">
         <f>DecemberRaw!B20</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <f>DecemberRaw!C20</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <f>DecemberRaw!D20</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15262,15 +15262,15 @@
       </c>
       <c r="B21" s="3">
         <f>DecemberRaw!B21</f>
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="C21" s="3">
         <f>DecemberRaw!C21</f>
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="D21" s="3">
         <f>DecemberRaw!D21</f>
-        <v>0</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15279,15 +15279,15 @@
       </c>
       <c r="B22" s="2">
         <f>DecemberRaw!B22</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2">
         <f>DecemberRaw!C22</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2">
         <f>DecemberRaw!D22</f>
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15296,15 +15296,15 @@
       </c>
       <c r="B23" s="3">
         <f>DecemberRaw!B23</f>
-        <v>0</v>
+        <v>1584</v>
       </c>
       <c r="C23" s="3">
         <f>DecemberRaw!C23</f>
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="D23" s="3">
         <f>DecemberRaw!D23</f>
-        <v>0</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15313,15 +15313,15 @@
       </c>
       <c r="B24" s="2">
         <f>DecemberRaw!B24</f>
-        <v>0</v>
+        <v>7047</v>
       </c>
       <c r="C24" s="2">
         <f>DecemberRaw!C24</f>
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="D24" s="2">
         <f>DecemberRaw!D24</f>
-        <v>0</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15330,15 +15330,15 @@
       </c>
       <c r="B25" s="3">
         <f>DecemberRaw!B25</f>
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="C25" s="3">
         <f>DecemberRaw!C25</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3">
         <f>DecemberRaw!D25</f>
-        <v>0</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15364,15 +15364,15 @@
       </c>
       <c r="B27" s="3">
         <f>DecemberRaw!B27</f>
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="C27" s="3">
         <f>DecemberRaw!C27</f>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D27" s="3">
         <f>DecemberRaw!D27</f>
-        <v>0</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15381,15 +15381,15 @@
       </c>
       <c r="B28" s="2">
         <f>DecemberRaw!B28</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2">
         <f>DecemberRaw!C28</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2">
         <f>DecemberRaw!D28</f>
-        <v>0</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15398,15 +15398,15 @@
       </c>
       <c r="B29" s="3">
         <f>DecemberRaw!B29</f>
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="C29" s="3">
         <f>DecemberRaw!C29</f>
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="D29" s="3">
         <f>DecemberRaw!D29</f>
-        <v>0</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15415,15 +15415,15 @@
       </c>
       <c r="B30" s="2">
         <f>DecemberRaw!B30</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
         <f>DecemberRaw!C30</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2">
         <f>DecemberRaw!D30</f>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15432,15 +15432,15 @@
       </c>
       <c r="B31" s="3">
         <f>DecemberRaw!B31</f>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="C31" s="3">
         <f>DecemberRaw!C31</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3">
         <f>DecemberRaw!D31</f>
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15449,15 +15449,15 @@
       </c>
       <c r="B32" s="2">
         <f>DecemberRaw!B32</f>
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="C32" s="2">
         <f>DecemberRaw!C32</f>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="D32" s="2">
         <f>DecemberRaw!D32</f>
-        <v>0</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15466,15 +15466,15 @@
       </c>
       <c r="B33" s="3">
         <f>DecemberRaw!B33</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="C33" s="3">
         <f>DecemberRaw!C33</f>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D33" s="3">
         <f>DecemberRaw!D33</f>
-        <v>0</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15483,15 +15483,15 @@
       </c>
       <c r="B34" s="2">
         <f>DecemberRaw!B34</f>
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="C34" s="2">
         <f>DecemberRaw!C34</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D34" s="2">
         <f>DecemberRaw!D34</f>
-        <v>0</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15500,15 +15500,15 @@
       </c>
       <c r="B35" s="3">
         <f>DecemberRaw!B35</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="C35" s="3">
         <f>DecemberRaw!C35</f>
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="D35" s="3">
         <f>DecemberRaw!D35</f>
-        <v>0</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15517,15 +15517,15 @@
       </c>
       <c r="B36" s="2">
         <f>DecemberRaw!B36</f>
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="C36" s="2">
         <f>DecemberRaw!C36</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2">
         <f>DecemberRaw!D36</f>
-        <v>0</v>
+        <v>787</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15534,15 +15534,15 @@
       </c>
       <c r="B37" s="3">
         <f>DecemberRaw!B37</f>
-        <v>0</v>
+        <v>2777</v>
       </c>
       <c r="C37" s="3">
         <f>DecemberRaw!C37</f>
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="D37" s="3">
         <f>DecemberRaw!D37</f>
-        <v>0</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15551,15 +15551,15 @@
       </c>
       <c r="B38" s="2">
         <f>DecemberRaw!B38</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2">
         <f>DecemberRaw!C38</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <f>DecemberRaw!D38</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15568,15 +15568,15 @@
       </c>
       <c r="B39" s="3">
         <f>DecemberRaw!B39</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C39" s="3">
         <f>DecemberRaw!C39</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3">
         <f>DecemberRaw!D39</f>
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15585,15 +15585,15 @@
       </c>
       <c r="B40" s="6">
         <f>DecemberRaw!B40</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C40" s="6">
         <f>DecemberRaw!C40</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D40" s="6">
         <f>DecemberRaw!D40</f>
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15602,15 +15602,15 @@
       </c>
       <c r="B41" s="7">
         <f>DecemberRaw!B41</f>
-        <v>0</v>
+        <v>1705</v>
       </c>
       <c r="C41" s="7">
         <f>DecemberRaw!C41</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D41" s="7">
         <f>DecemberRaw!D41</f>
-        <v>0</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15619,15 +15619,15 @@
       </c>
       <c r="B42" s="6">
         <f>DecemberRaw!B42</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C42" s="6">
         <f>DecemberRaw!C42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
         <f>DecemberRaw!D42</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15636,15 +15636,15 @@
       </c>
       <c r="B43" s="7">
         <f>DecemberRaw!B43</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C43" s="7">
         <f>DecemberRaw!C43</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D43" s="7">
         <f>DecemberRaw!D43</f>
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15670,15 +15670,15 @@
       </c>
       <c r="B45" s="3">
         <f>DecemberRaw!B45</f>
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="C45" s="3">
         <f>DecemberRaw!C45</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D45" s="3">
         <f>DecemberRaw!D45</f>
-        <v>0</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15687,15 +15687,15 @@
       </c>
       <c r="B46" s="2">
         <f>DecemberRaw!B46</f>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="C46" s="2">
         <f>DecemberRaw!C46</f>
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="D46" s="2">
         <f>DecemberRaw!D46</f>
-        <v>0</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15704,15 +15704,15 @@
       </c>
       <c r="B47" s="3">
         <f>DecemberRaw!B47</f>
-        <v>0</v>
+        <v>2395</v>
       </c>
       <c r="C47" s="3">
         <f>DecemberRaw!C47</f>
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="D47" s="3">
         <f>DecemberRaw!D47</f>
-        <v>0</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15721,15 +15721,15 @@
       </c>
       <c r="B48" s="2">
         <f>DecemberRaw!B48</f>
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="C48" s="2">
         <f>DecemberRaw!C48</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D48" s="2">
         <f>DecemberRaw!D48</f>
-        <v>0</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15738,15 +15738,15 @@
       </c>
       <c r="B49" s="3">
         <f>DecemberRaw!B49</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="C49" s="3">
         <f>DecemberRaw!C49</f>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D49" s="3">
         <f>DecemberRaw!D49</f>
-        <v>0</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15755,15 +15755,15 @@
       </c>
       <c r="B50" s="2">
         <f>DecemberRaw!B50</f>
-        <v>0</v>
+        <v>2671</v>
       </c>
       <c r="C50" s="2">
         <f>DecemberRaw!C50</f>
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="D50" s="2">
         <f>DecemberRaw!D50</f>
-        <v>0</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15772,15 +15772,15 @@
       </c>
       <c r="B51" s="3">
         <f>DecemberRaw!B51</f>
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="C51" s="3">
         <f>DecemberRaw!C51</f>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D51" s="3">
         <f>DecemberRaw!D51</f>
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15789,15 +15789,15 @@
       </c>
       <c r="B52" s="2">
         <f>DecemberRaw!B52</f>
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="C52" s="2">
         <f>DecemberRaw!C52</f>
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D52" s="2">
         <f>DecemberRaw!D52</f>
-        <v>0</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15806,15 +15806,15 @@
       </c>
       <c r="B53" s="3">
         <f>DecemberRaw!B53</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C53" s="3">
         <f>DecemberRaw!C53</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D53" s="3">
         <f>DecemberRaw!D53</f>
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15823,15 +15823,15 @@
       </c>
       <c r="B54" s="2">
         <f>DecemberRaw!B54</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C54" s="2">
         <f>DecemberRaw!C54</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <f>DecemberRaw!D54</f>
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15840,15 +15840,15 @@
       </c>
       <c r="B55" s="3">
         <f>DecemberRaw!B55</f>
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="C55" s="3">
         <f>DecemberRaw!C55</f>
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="D55" s="3">
         <f>DecemberRaw!D55</f>
-        <v>0</v>
+        <v>806</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15857,15 +15857,15 @@
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15874,15 +15874,15 @@
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2218</v>
       </c>
     </row>
   </sheetData>
@@ -15894,7 +15894,7 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F6AF87-07CC-4275-8147-8B4E740FF67D}">
   <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -15904,7 +15904,751 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3335</v>
+      </c>
+      <c r="C2">
+        <v>1324</v>
+      </c>
+      <c r="D2">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2200</v>
+      </c>
+      <c r="C3">
+        <v>510</v>
+      </c>
+      <c r="D3">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6997</v>
+      </c>
+      <c r="C4">
+        <v>975</v>
+      </c>
+      <c r="D4">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4206</v>
+      </c>
+      <c r="C6">
+        <v>836</v>
+      </c>
+      <c r="D6">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>353</v>
+      </c>
+      <c r="C7">
+        <v>154</v>
+      </c>
+      <c r="D7">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>521</v>
+      </c>
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>202</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>396</v>
+      </c>
+      <c r="C14">
+        <v>144</v>
+      </c>
+      <c r="D14">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>199</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>187</v>
+      </c>
+      <c r="C16">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1131</v>
+      </c>
+      <c r="C17">
+        <v>499</v>
+      </c>
+      <c r="D17">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1356</v>
+      </c>
+      <c r="C19">
+        <v>427</v>
+      </c>
+      <c r="D19">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1350</v>
+      </c>
+      <c r="C21">
+        <v>477</v>
+      </c>
+      <c r="D21">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>169</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1584</v>
+      </c>
+      <c r="C23">
+        <v>467</v>
+      </c>
+      <c r="D23">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7047</v>
+      </c>
+      <c r="C24">
+        <v>1420</v>
+      </c>
+      <c r="D24">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>516</v>
+      </c>
+      <c r="C25">
+        <v>177</v>
+      </c>
+      <c r="D25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>351</v>
+      </c>
+      <c r="C27">
+        <v>227</v>
+      </c>
+      <c r="D27">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>216</v>
+      </c>
+      <c r="C28">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1080</v>
+      </c>
+      <c r="C29">
+        <v>539</v>
+      </c>
+      <c r="D29">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>234</v>
+      </c>
+      <c r="C31">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1147</v>
+      </c>
+      <c r="C32">
+        <v>354</v>
+      </c>
+      <c r="D32">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>942</v>
+      </c>
+      <c r="C33">
+        <v>322</v>
+      </c>
+      <c r="D33">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>446</v>
+      </c>
+      <c r="C34">
+        <v>178</v>
+      </c>
+      <c r="D34">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4800</v>
+      </c>
+      <c r="C35">
+        <v>732</v>
+      </c>
+      <c r="D35">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>664</v>
+      </c>
+      <c r="C36">
+        <v>123</v>
+      </c>
+      <c r="D36">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2777</v>
+      </c>
+      <c r="C37">
+        <v>484</v>
+      </c>
+      <c r="D37">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>97</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>74</v>
+      </c>
+      <c r="D39">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>267</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1705</v>
+      </c>
+      <c r="C41">
+        <v>88</v>
+      </c>
+      <c r="D41">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>105</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>281</v>
+      </c>
+      <c r="C45">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1018</v>
+      </c>
+      <c r="C46">
+        <v>399</v>
+      </c>
+      <c r="D46">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2395</v>
+      </c>
+      <c r="C47">
+        <v>792</v>
+      </c>
+      <c r="D47">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1360</v>
+      </c>
+      <c r="C48">
+        <v>155</v>
+      </c>
+      <c r="D48">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>780</v>
+      </c>
+      <c r="C49">
+        <v>650</v>
+      </c>
+      <c r="D49">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2671</v>
+      </c>
+      <c r="C50">
+        <v>777</v>
+      </c>
+      <c r="D50">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>371</v>
+      </c>
+      <c r="C51">
+        <v>161</v>
+      </c>
+      <c r="D51">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>599</v>
+      </c>
+      <c r="C52">
+        <v>209</v>
+      </c>
+      <c r="D52">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>133</v>
+      </c>
+      <c r="C53">
+        <v>132</v>
+      </c>
+      <c r="D53">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>184</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>287</v>
+      </c>
+      <c r="C55">
+        <v>519</v>
+      </c>
+      <c r="D55">
+        <v>806</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
